--- a/Wind_Tunnel_Testing/WIND TUNNEL TESTING.xlsx
+++ b/Wind_Tunnel_Testing/WIND TUNNEL TESTING.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/G/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/G/Programs/GitHub/Sizing_Algorithm/Wind_Tunnel_Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180A7C5C-415A-0240-8234-F0704992E0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590F59E9-2322-EF4F-BDFA-F94CC2614B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33680" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{D897026C-7703-4763-9101-B209D1D946C8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{25320B79-A6AD-094E-B2CD-44573C73109B}" name="last" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/G/Desktop/last.txt" space="1" consecutive="1">
+    <textPr sourceFile="/Users/G/Desktop/last.txt" space="1" consecutive="1">
       <textFields count="14">
         <textField/>
         <textField/>
@@ -66,7 +66,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{7C725A36-E657-AE4A-896C-4491B54B3059}" name="middle" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/G/Desktop/middle.txt" space="1" consecutive="1">
+    <textPr sourceFile="/Users/G/Desktop/middle.txt" space="1" consecutive="1">
       <textFields count="14">
         <textField/>
         <textField/>
@@ -86,7 +86,7 @@
     </textPr>
   </connection>
   <connection id="3" xr16:uid="{62846FB4-88AA-E44C-902E-D98DDF66DC59}" name="stallSpeed" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/G/Desktop/stallSpeed.txt" space="1" consecutive="1">
+    <textPr sourceFile="/Users/G/Desktop/stallSpeed.txt" space="1" consecutive="1">
       <textFields count="14">
         <textField/>
         <textField/>
@@ -109,15 +109,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="37">
   <si>
     <t>CL</t>
   </si>
   <si>
     <t>Lift (N)</t>
-  </si>
-  <si>
-    <t>AOA (deg)</t>
   </si>
   <si>
     <t>Lift (lbf)</t>
@@ -208,6 +205,21 @@
   </si>
   <si>
     <t>q Average</t>
+  </si>
+  <si>
+    <t>AOA  Abs(deg)</t>
+  </si>
+  <si>
+    <t>AOA Rel(deg)</t>
+  </si>
+  <si>
+    <t>AOA rel (deg)</t>
+  </si>
+  <si>
+    <t>AOA Abs (deg)</t>
+  </si>
+  <si>
+    <t>AOA rel(deg)</t>
   </si>
 </sst>
 </file>
@@ -390,88 +402,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>-2.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.5</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.5</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12.5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13.5</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>14.5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15.5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>16.5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>17.5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>18.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>19.5</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>20.5</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1672,7 +1684,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:B33"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1689,31 +1701,31 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1">
         <v>12.699999800000001</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1">
         <v>0.12801599999999999</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1">
         <v>0.91439999999999999</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K1">
         <v>0.35560000000000003</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N1">
         <v>0.35560000000000003</v>
@@ -1721,22 +1733,22 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>1</v>
@@ -1745,15 +1757,16 @@
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>-2.5</v>
+        <f>-2.5+2.5</f>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0.21602321470999999</v>
@@ -1777,11 +1790,11 @@
         <v>5.4171543204463326</v>
       </c>
       <c r="H3">
-        <f>G3/($B$33*$E$1*$H$1)</f>
+        <f t="shared" ref="H3:H30" si="0">G3/($B$33*$E$1*$H$1)</f>
         <v>0.4723914001721809</v>
       </c>
       <c r="I3">
-        <f>$B$33*$K$1*$N$1*H3</f>
+        <f t="shared" ref="I3:I30" si="1">$B$33*$K$1*$N$1*H3</f>
         <v>5.8518642350500523</v>
       </c>
       <c r="J3">
@@ -1791,7 +1804,8 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>-1.5</v>
+        <f>-1.5+2.5</f>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>0.20068424854</v>
@@ -1803,33 +1817,34 @@
         <v>0.39125771088</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E30" si="0">D4*248.82</f>
+        <f t="shared" ref="E4:E30" si="2">D4*248.82</f>
         <v>97.352743621161594</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:G67" si="1">B4*4.44822162</f>
+        <f t="shared" ref="F4:G30" si="3">B4*4.44822162</f>
         <v>0.89268801314908142</v>
       </c>
       <c r="G4">
+        <f t="shared" si="3"/>
+        <v>6.1558463629745672</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.53680746580813454</v>
+      </c>
+      <c r="I4">
         <f t="shared" si="1"/>
-        <v>6.1558463629745672</v>
-      </c>
-      <c r="H4">
-        <f>G4/($B$33*$E$1*$H$1)</f>
-        <v>0.53680746580813454</v>
-      </c>
-      <c r="I4">
-        <f>$B$33*$K$1*$N$1*H4</f>
         <v>6.6498340340774664</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J30" si="2">I4*0.224809</f>
+        <f t="shared" ref="J4:J30" si="4">I4*0.224809</f>
         <v>1.4949425393669211</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>-1.5</v>
+        <f>-1.5+2.5</f>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>0.21825665404</v>
@@ -1841,31 +1856,31 @@
         <v>0.39378885573</v>
       </c>
       <c r="E5">
+        <f t="shared" si="2"/>
+        <v>97.982543082738601</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>0.97085396720958839</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>6.1704650514848547</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="0"/>
-        <v>97.982543082738601</v>
-      </c>
-      <c r="F5">
+        <v>0.5380822573916032</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="1"/>
-        <v>0.97085396720958839</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>6.1704650514848547</v>
-      </c>
-      <c r="H5">
-        <f>G5/($B$33*$E$1*$H$1)</f>
-        <v>0.5380822573916032</v>
-      </c>
-      <c r="I5">
-        <f>$B$33*$K$1*$N$1*H5</f>
         <v>6.6656258272212963</v>
       </c>
       <c r="J5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.4984926765917925</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N5" s="4">
         <f>MAX(H$3:H$1048576)</f>
@@ -1874,7 +1889,8 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>-0.5</v>
+        <f>-0.5+2.5</f>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>0.19510512157000001</v>
@@ -1886,31 +1902,31 @@
         <v>0.39987793059999999</v>
       </c>
       <c r="E6">
+        <f t="shared" si="2"/>
+        <v>99.497626691891995</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>0.86787081994040238</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>6.7628898320365449</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="0"/>
-        <v>99.497626691891995</v>
-      </c>
-      <c r="F6">
+        <v>0.58974339809886145</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="1"/>
-        <v>0.86787081994040238</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>6.7628898320365449</v>
-      </c>
-      <c r="H6">
-        <f>G6/($B$33*$E$1*$H$1)</f>
-        <v>0.58974339809886145</v>
-      </c>
-      <c r="I6">
-        <f>$B$33*$K$1*$N$1*H6</f>
         <v>7.3055908679407144</v>
       </c>
       <c r="J6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.6423625774308841</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N6" s="4">
         <f>MAX(J:J)</f>
@@ -1919,7 +1935,8 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>0.5</v>
+        <f>0.5+2.5</f>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>0.17887076756</v>
@@ -1931,33 +1948,34 @@
         <v>0.39673389847000001</v>
       </c>
       <c r="E7">
+        <f t="shared" si="2"/>
+        <v>98.715328617305403</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>0.79565681544638667</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>7.791636431694009</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="0"/>
-        <v>98.715328617305403</v>
-      </c>
-      <c r="F7">
+        <v>0.67945305336940187</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="1"/>
-        <v>0.79565681544638667</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>7.791636431694009</v>
-      </c>
-      <c r="H7">
-        <f>G7/($B$33*$E$1*$H$1)</f>
-        <v>0.67945305336940187</v>
-      </c>
-      <c r="I7">
-        <f>$B$33*$K$1*$N$1*H7</f>
         <v>8.4168912070768638</v>
       </c>
       <c r="J7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.8921928953717428</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1.5</v>
+        <f>1.5+2.5</f>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>0.12794656240999999</v>
@@ -1969,33 +1987,34 @@
         <v>0.40088879662999999</v>
       </c>
       <c r="E8">
+        <f t="shared" si="2"/>
+        <v>99.749150377476596</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>0.5691346651168413</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>7.9887171252212044</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="0"/>
-        <v>99.749150377476596</v>
-      </c>
-      <c r="F8">
+        <v>0.69663905532818415</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="1"/>
-        <v>0.5691346651168413</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>7.9887171252212044</v>
-      </c>
-      <c r="H8">
-        <f>G8/($B$33*$E$1*$H$1)</f>
-        <v>0.69663905532818415</v>
-      </c>
-      <c r="I8">
-        <f>$B$33*$K$1*$N$1*H8</f>
         <v>8.6297870179858727</v>
       </c>
       <c r="J8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.9400537897263861</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1.5</v>
+        <f>2.5+1.5</f>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>0.17603481383</v>
@@ -2007,33 +2026,34 @@
         <v>0.38554273603</v>
       </c>
       <c r="E9">
+        <f t="shared" si="2"/>
+        <v>95.930743578984604</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>0.78304186475128101</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>7.9652372662225215</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="0"/>
-        <v>95.930743578984604</v>
-      </c>
-      <c r="F9">
+        <v>0.69459154425278991</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="1"/>
-        <v>0.78304186475128101</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>7.9652372662225215</v>
-      </c>
-      <c r="H9">
-        <f>G9/($B$33*$E$1*$H$1)</f>
-        <v>0.69459154425278991</v>
-      </c>
-      <c r="I9">
-        <f>$B$33*$K$1*$N$1*H9</f>
         <v>8.6044229727712445</v>
       </c>
       <c r="J9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.9343517240857309</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2.5</v>
+        <f>2.5+2.5</f>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>0.33391482881000001</v>
@@ -2045,33 +2065,34 @@
         <v>0.39807110707999999</v>
       </c>
       <c r="E10">
+        <f t="shared" si="2"/>
+        <v>99.048052863645594</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>1.4853271607512408</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>6.5279517716193984</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="0"/>
-        <v>99.048052863645594</v>
-      </c>
-      <c r="F10">
+        <v>0.56925612512321389</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="1"/>
-        <v>1.4853271607512408</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>6.5279517716193984</v>
-      </c>
-      <c r="H10">
-        <f>G10/($B$33*$E$1*$H$1)</f>
-        <v>0.56925612512321389</v>
-      </c>
-      <c r="I10">
-        <f>$B$33*$K$1*$N$1*H10</f>
         <v>7.0517997532925616</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.5853080507379476</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>3.5</v>
+        <f>3.5+2.5</f>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>0.31750385647000001</v>
@@ -2083,33 +2104,34 @@
         <v>0.39338291739999998</v>
       </c>
       <c r="E11">
+        <f t="shared" si="2"/>
+        <v>97.881537507467996</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>1.4123275187832309</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>6.347904125449138</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="0"/>
-        <v>97.881537507467996</v>
-      </c>
-      <c r="F11">
+        <v>0.55355545376684256</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="1"/>
-        <v>1.4123275187832309</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>6.347904125449138</v>
-      </c>
-      <c r="H11">
-        <f>G11/($B$33*$E$1*$H$1)</f>
-        <v>0.55355545376684256</v>
-      </c>
-      <c r="I11">
-        <f>$B$33*$K$1*$N$1*H11</f>
         <v>6.8573038392197487</v>
       </c>
       <c r="J11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.5415836187911525</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>4.5</v>
+        <f>4.5+2.5</f>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>0.32947366041999998</v>
@@ -2121,33 +2143,34 @@
         <v>0.3821439975</v>
       </c>
       <c r="E12">
+        <f t="shared" si="2"/>
+        <v>95.085069457949999</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>1.4655718595007823</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>6.6802170411166601</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="0"/>
-        <v>95.085069457949999</v>
-      </c>
-      <c r="F12">
+        <v>0.58253409351778596</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="1"/>
-        <v>1.4655718595007823</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>6.6802170411166601</v>
-      </c>
-      <c r="H12">
-        <f>G12/($B$33*$E$1*$H$1)</f>
-        <v>0.58253409351778596</v>
-      </c>
-      <c r="I12">
-        <f>$B$33*$K$1*$N$1*H12</f>
         <v>7.2162838407124434</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.6222855539467238</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>5.5</v>
+        <f>2.5+5.5</f>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>0.33273215674000001</v>
@@ -2159,33 +2182,34 @@
         <v>0.38782713405000002</v>
       </c>
       <c r="E13">
+        <f t="shared" si="2"/>
+        <v>96.499147494321008</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>1.4800663732800967</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>7.043840770404163</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="0"/>
-        <v>96.499147494321008</v>
-      </c>
-      <c r="F13">
+        <v>0.61424312605644193</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="1"/>
-        <v>1.4800663732800967</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>7.043840770404163</v>
-      </c>
-      <c r="H13">
-        <f>G13/($B$33*$E$1*$H$1)</f>
-        <v>0.61424312605644193</v>
-      </c>
-      <c r="I13">
-        <f>$B$33*$K$1*$N$1*H13</f>
         <v>7.6090872519798074</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.7105912960303287</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>5.5</v>
+        <f>5.5+2.5</f>
+        <v>8</v>
       </c>
       <c r="B14">
         <v>0.33316028850000001</v>
@@ -2197,33 +2221,34 @@
         <v>0.40614211613000001</v>
       </c>
       <c r="E14">
+        <f t="shared" si="2"/>
+        <v>101.05628133546659</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>1.4819707982311374</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>6.7444900289976921</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="0"/>
-        <v>101.05628133546659</v>
-      </c>
-      <c r="F14">
+        <v>0.58813888247935808</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="1"/>
-        <v>1.4819707982311374</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>6.7444900289976921</v>
-      </c>
-      <c r="H14">
-        <f>G14/($B$33*$E$1*$H$1)</f>
-        <v>0.58813888247935808</v>
-      </c>
-      <c r="I14">
-        <f>$B$33*$K$1*$N$1*H14</f>
         <v>7.2857145374975092</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.6378941994602776</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>6.5</v>
+        <f>2.5+6.5</f>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>0.34204597878999998</v>
@@ -2235,33 +2260,34 @@
         <v>0.39203774923000001</v>
       </c>
       <c r="E15">
+        <f t="shared" si="2"/>
+        <v>97.546832763408602</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>1.5214963178877394</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>7.2304678944242875</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="0"/>
-        <v>97.546832763408602</v>
-      </c>
-      <c r="F15">
+        <v>0.63051754675980309</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="1"/>
-        <v>1.5214963178877394</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>7.2304678944242875</v>
-      </c>
-      <c r="H15">
-        <f>G15/($B$33*$E$1*$H$1)</f>
-        <v>0.63051754675980309</v>
-      </c>
-      <c r="I15">
-        <f>$B$33*$K$1*$N$1*H15</f>
         <v>7.8106906266929057</v>
       </c>
       <c r="J15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.7559135490962055</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>7.5</v>
+        <f>2.5+7.5</f>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>0.32527618061000002</v>
@@ -2273,33 +2299,34 @@
         <v>0.39428234938000001</v>
       </c>
       <c r="E16">
+        <f t="shared" si="2"/>
+        <v>98.105334172731602</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>1.4469005390604268</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>8.1677819101351954</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="0"/>
-        <v>98.105334172731602</v>
-      </c>
-      <c r="F16">
+        <v>0.71225401836288704</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="1"/>
-        <v>1.4469005390604268</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>8.1677819101351954</v>
-      </c>
-      <c r="H16">
-        <f>G16/($B$33*$E$1*$H$1)</f>
-        <v>0.71225401836288704</v>
-      </c>
-      <c r="I16">
-        <f>$B$33*$K$1*$N$1*H16</f>
         <v>8.8232211992201215</v>
       </c>
       <c r="J16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.9835395345754763</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>8.5</v>
+        <f>2.5+8.5</f>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>0.29887285885999998</v>
@@ -2311,33 +2338,34 @@
         <v>0.3912497513</v>
       </c>
       <c r="E17">
+        <f t="shared" si="2"/>
+        <v>97.350763118465991</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>1.3294527124122604</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>8.1502128618146568</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="0"/>
-        <v>97.350763118465991</v>
-      </c>
-      <c r="F17">
+        <v>0.71072194693850343</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="1"/>
-        <v>1.3294527124122604</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>8.1502128618146568</v>
-      </c>
-      <c r="H17">
-        <f>G17/($B$33*$E$1*$H$1)</f>
-        <v>0.71072194693850343</v>
-      </c>
-      <c r="I17">
-        <f>$B$33*$K$1*$N$1*H17</f>
         <v>8.8042422889973171</v>
       </c>
       <c r="J17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.979272904747198</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>9.5</v>
+        <f>2.5+9.5</f>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>0.49500303742000001</v>
@@ -2349,33 +2377,34 @@
         <v>0.39697268572</v>
       </c>
       <c r="E18">
+        <f t="shared" si="2"/>
+        <v>98.77474366085039</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>2.2018832130173132</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>8.1078290176989611</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="0"/>
-        <v>98.77474366085039</v>
-      </c>
-      <c r="F18">
+        <v>0.7070259541197419</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="1"/>
-        <v>2.2018832130173132</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>8.1078290176989611</v>
-      </c>
-      <c r="H18">
-        <f>G18/($B$33*$E$1*$H$1)</f>
-        <v>0.7070259541197419</v>
-      </c>
-      <c r="I18">
-        <f>$B$33*$K$1*$N$1*H18</f>
         <v>8.7584572722056713</v>
       </c>
       <c r="J18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.9689800209072847</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>10.5</v>
+        <f>2.5+10.5</f>
+        <v>13</v>
       </c>
       <c r="B19">
         <v>0.40854836734</v>
@@ -2387,33 +2416,34 @@
         <v>0.39152037685000002</v>
       </c>
       <c r="E19">
+        <f t="shared" si="2"/>
+        <v>97.418100167817002</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>1.8173136804174899</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>9.1322492345727788</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="0"/>
-        <v>97.418100167817002</v>
-      </c>
-      <c r="F19">
+        <v>0.79635833639786757</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="1"/>
-        <v>1.8173136804174899</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="1"/>
-        <v>9.1322492345727788</v>
-      </c>
-      <c r="H19">
-        <f>G19/($B$33*$E$1*$H$1)</f>
-        <v>0.79635833639786757</v>
-      </c>
-      <c r="I19">
-        <f>$B$33*$K$1*$N$1*H19</f>
         <v>9.86508404969282</v>
       </c>
       <c r="J19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.2177596801273931</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>11.5</v>
+        <f>2.5+11.5</f>
+        <v>14</v>
       </c>
       <c r="B20">
         <v>0.72323415547000003</v>
@@ -2425,33 +2455,34 @@
         <v>0.39492707495000001</v>
       </c>
       <c r="E20">
+        <f t="shared" si="2"/>
+        <v>98.265754789059002</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>3.2171058066840952</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>9.2668302282159782</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="0"/>
-        <v>98.265754789059002</v>
-      </c>
-      <c r="F20">
+        <v>0.80809418519651066</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="1"/>
-        <v>3.2171058066840952</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
-        <v>9.2668302282159782</v>
-      </c>
-      <c r="H20">
-        <f>G20/($B$33*$E$1*$H$1)</f>
-        <v>0.80809418519651066</v>
-      </c>
-      <c r="I20">
-        <f>$B$33*$K$1*$N$1*H20</f>
         <v>10.010464752702449</v>
       </c>
       <c r="J20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.2504425705902849</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>11.5</v>
+        <f>2.5+11.5</f>
+        <v>14</v>
       </c>
       <c r="B21">
         <v>0.70126529509000002</v>
@@ -2463,33 +2494,34 @@
         <v>0.39391620893000001</v>
       </c>
       <c r="E21">
+        <f t="shared" si="2"/>
+        <v>98.014231105962594</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>3.1193834469750179</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>9.4051588574704681</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="0"/>
-        <v>98.014231105962594</v>
-      </c>
-      <c r="F21">
+        <v>0.82015683857354105</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="1"/>
-        <v>3.1193834469750179</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
-        <v>9.4051588574704681</v>
-      </c>
-      <c r="H21">
-        <f>G21/($B$33*$E$1*$H$1)</f>
-        <v>0.82015683857354105</v>
-      </c>
-      <c r="I21">
-        <f>$B$33*$K$1*$N$1*H21</f>
         <v>10.159893827514397</v>
       </c>
       <c r="J21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.2840355714696843</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>12.5</v>
+        <f>2.5+12.5</f>
+        <v>15</v>
       </c>
       <c r="B22">
         <v>0.74246878534000005</v>
@@ -2501,33 +2533,34 @@
         <v>0.39015132995000001</v>
       </c>
       <c r="E22">
+        <f t="shared" si="2"/>
+        <v>97.077453918158994</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>3.3026657031245272</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>9.5219862493253142</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="0"/>
-        <v>97.077453918158994</v>
-      </c>
-      <c r="F22">
+        <v>0.83034452235586831</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="1"/>
-        <v>3.3026657031245272</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
-        <v>9.5219862493253142</v>
-      </c>
-      <c r="H22">
-        <f>G22/($B$33*$E$1*$H$1)</f>
-        <v>0.83034452235586831</v>
-      </c>
-      <c r="I22">
-        <f>$B$33*$K$1*$N$1*H22</f>
         <v>10.286096256987225</v>
       </c>
       <c r="J22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.3124070134370411</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>13.5</v>
+        <f>2.5+13.5</f>
+        <v>16</v>
       </c>
       <c r="B23">
         <v>0.67846699926999998</v>
@@ -2539,33 +2572,34 @@
         <v>0.38904494902999998</v>
       </c>
       <c r="E23">
+        <f t="shared" si="2"/>
+        <v>96.802164217644588</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>3.0179715746093381</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>9.8993752398191948</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="0"/>
-        <v>96.802164217644588</v>
-      </c>
-      <c r="F23">
+        <v>0.86325392516835475</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="1"/>
-        <v>3.0179715746093381</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
-        <v>9.8993752398191948</v>
-      </c>
-      <c r="H23">
-        <f>G23/($B$33*$E$1*$H$1)</f>
-        <v>0.86325392516835475</v>
-      </c>
-      <c r="I23">
-        <f>$B$33*$K$1*$N$1*H23</f>
         <v>10.693769549187405</v>
       </c>
       <c r="J23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.4040556385832712</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>14.5</v>
+        <f>2.5+14.5</f>
+        <v>17</v>
       </c>
       <c r="B24">
         <v>0.68092288826000003</v>
@@ -2577,33 +2611,34 @@
         <v>0.38793856809999999</v>
       </c>
       <c r="E24">
+        <f t="shared" si="2"/>
+        <v>96.526874514641989</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>3.0288959131109765</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>9.8320115709307245</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="0"/>
-        <v>96.526874514641989</v>
-      </c>
-      <c r="F24">
+        <v>0.85737961995484968</v>
+      </c>
+      <c r="I24">
         <f t="shared" si="1"/>
-        <v>3.0288959131109765</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="1"/>
-        <v>9.8320115709307245</v>
-      </c>
-      <c r="H24">
-        <f>G24/($B$33*$E$1*$H$1)</f>
-        <v>0.85737961995484968</v>
-      </c>
-      <c r="I24">
-        <f>$B$33*$K$1*$N$1*H24</f>
         <v>10.621000153783193</v>
       </c>
       <c r="J24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.3876964235718461</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>15.5</v>
+        <f>2.5+15.5</f>
+        <v>18</v>
       </c>
       <c r="B25">
         <v>0.66562751774999995</v>
@@ -2615,33 +2650,34 @@
         <v>0.40248867119999998</v>
       </c>
       <c r="E25">
+        <f t="shared" si="2"/>
+        <v>100.14723116798399</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>2.9608587153224835</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>9.4076362803563836</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="0"/>
-        <v>100.14723116798399</v>
-      </c>
-      <c r="F25">
+        <v>0.82037287695765704</v>
+      </c>
+      <c r="I25">
         <f t="shared" si="1"/>
-        <v>2.9608587153224835</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="1"/>
-        <v>9.4076362803563836</v>
-      </c>
-      <c r="H25">
-        <f>G25/($B$33*$E$1*$H$1)</f>
-        <v>0.82037287695765704</v>
-      </c>
-      <c r="I25">
-        <f>$B$33*$K$1*$N$1*H25</f>
         <v>10.16257005594054</v>
       </c>
       <c r="J25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.2846372117059368</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>16.5</v>
+        <f>2.5+16.5</f>
+        <v>19</v>
       </c>
       <c r="B26">
         <v>0.83331655680000005</v>
@@ -2653,33 +2689,34 @@
         <v>0.39508626645</v>
       </c>
       <c r="E26">
+        <f t="shared" si="2"/>
+        <v>98.305364818089004</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>3.7067767242617182</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>9.001398731093051</v>
+      </c>
+      <c r="H26">
         <f t="shared" si="0"/>
-        <v>98.305364818089004</v>
-      </c>
-      <c r="F26">
+        <v>0.78494779704536655</v>
+      </c>
+      <c r="I26">
         <f t="shared" si="1"/>
-        <v>3.7067767242617182</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="1"/>
-        <v>9.001398731093051</v>
-      </c>
-      <c r="H26">
-        <f>G26/($B$33*$E$1*$H$1)</f>
-        <v>0.78494779704536655</v>
-      </c>
-      <c r="I26">
-        <f>$B$33*$K$1*$N$1*H26</f>
         <v>9.7237331971684213</v>
       </c>
       <c r="J26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.1859827363222357</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>17.5</v>
+        <f>2.5+17.5</f>
+        <v>20</v>
       </c>
       <c r="B27">
         <v>0.94813970696000005</v>
@@ -2691,33 +2728,34 @@
         <v>0.39622448568000002</v>
       </c>
       <c r="E27">
+        <f t="shared" si="2"/>
+        <v>98.588576526897597</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>4.2175355432799364</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>9.4864657495693656</v>
+      </c>
+      <c r="H27">
         <f t="shared" si="0"/>
-        <v>98.588576526897597</v>
-      </c>
-      <c r="F27">
+        <v>0.82724703285825585</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="1"/>
-        <v>4.2175355432799364</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="1"/>
-        <v>9.4864657495693656</v>
-      </c>
-      <c r="H27">
-        <f>G27/($B$33*$E$1*$H$1)</f>
-        <v>0.82724703285825585</v>
-      </c>
-      <c r="I27">
-        <f>$B$33*$K$1*$N$1*H27</f>
         <v>10.247725346757033</v>
       </c>
       <c r="J27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.3037808874791019</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>18.5</v>
+        <f>2.5+18.5</f>
+        <v>21</v>
       </c>
       <c r="B28">
         <v>1.0567387379199999</v>
@@ -2729,33 +2767,34 @@
         <v>0.39637571760000001</v>
       </c>
       <c r="E28">
+        <f t="shared" si="2"/>
+        <v>98.626206053231996</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>4.7006081007072575</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>9.2189597441814808</v>
+      </c>
+      <c r="H28">
         <f t="shared" si="0"/>
-        <v>98.626206053231996</v>
-      </c>
-      <c r="F28">
+        <v>0.80391974163402535</v>
+      </c>
+      <c r="I28">
         <f t="shared" si="1"/>
-        <v>4.7006081007072575</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="1"/>
-        <v>9.2189597441814808</v>
-      </c>
-      <c r="H28">
-        <f>G28/($B$33*$E$1*$H$1)</f>
-        <v>0.80391974163402535</v>
-      </c>
-      <c r="I28">
-        <f>$B$33*$K$1*$N$1*H28</f>
         <v>9.9587528100725891</v>
       </c>
       <c r="J28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.2388172604796086</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>19.5</v>
+        <f>2.5+19.5</f>
+        <v>22</v>
       </c>
       <c r="B29">
         <v>1.05833500987</v>
@@ -2767,33 +2806,34 @@
         <v>0.38709485314999997</v>
       </c>
       <c r="E29">
+        <f t="shared" si="2"/>
+        <v>96.316941360782991</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>4.707708672106647</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>9.429546805522028</v>
+      </c>
+      <c r="H29">
         <f t="shared" si="0"/>
-        <v>96.316941360782991</v>
-      </c>
-      <c r="F29">
+        <v>0.82228353761992412</v>
+      </c>
+      <c r="I29">
         <f t="shared" si="1"/>
-        <v>4.707708672106647</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="1"/>
-        <v>9.429546805522028</v>
-      </c>
-      <c r="H29">
-        <f>G29/($B$33*$E$1*$H$1)</f>
-        <v>0.82228353761992412</v>
-      </c>
-      <c r="I29">
-        <f>$B$33*$K$1*$N$1*H29</f>
         <v>10.186238833125651</v>
       </c>
       <c r="J29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.2899581658361448</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>20.5</v>
+        <f>2.5+20.5</f>
+        <v>23</v>
       </c>
       <c r="B30">
         <v>1.09163203549</v>
@@ -2805,33 +2845,33 @@
         <v>0.39141690236999999</v>
       </c>
       <c r="E30">
+        <f t="shared" si="2"/>
+        <v>97.392353647703388</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>4.8558212213512251</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>9.222577401556018</v>
+      </c>
+      <c r="H30">
         <f t="shared" si="0"/>
-        <v>97.392353647703388</v>
-      </c>
-      <c r="F30">
+        <v>0.80423521173722157</v>
+      </c>
+      <c r="I30">
         <f t="shared" si="1"/>
-        <v>4.8558212213512251</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="1"/>
-        <v>9.222577401556018</v>
-      </c>
-      <c r="H30">
-        <f>G30/($B$33*$E$1*$H$1)</f>
-        <v>0.80423521173722157</v>
-      </c>
-      <c r="I30">
-        <f>$B$33*$K$1*$N$1*H30</f>
         <v>9.9626607732858243</v>
       </c>
       <c r="J30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.2396958057816128</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <f>AVERAGE(E3:E30)</f>
@@ -2847,982 +2887,1078 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E50342-A1ED-3641-9FD6-F5197EE56D46}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:B29"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1">
+        <v>14.3933333</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B1">
-        <v>14.3933333</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1">
+        <v>0.12801599999999999</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="E1">
-        <v>0.12801599999999999</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1">
+        <v>0.91439999999999999</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1">
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1">
+        <v>0.35560000000000003</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1">
-        <v>0.91439999999999999</v>
-      </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1">
-        <v>0.35560000000000003</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N1">
-        <v>0.35560000000000003</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-2.5</v>
       </c>
       <c r="B3">
+        <f>2.5+A3</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>0.32013748162</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1.4535087440900001</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.39767312833000001</v>
       </c>
-      <c r="E3">
-        <f>D3*248.82</f>
+      <c r="F3">
+        <f>E3*248.82</f>
         <v>98.949027791070606</v>
-      </c>
-      <c r="F3">
-        <f>B3*4.44822162</f>
-        <v>1.4240424671144367</v>
       </c>
       <c r="G3">
         <f>C3*4.44822162</f>
+        <v>1.4240424671144367</v>
+      </c>
+      <c r="H3">
+        <f>D3*4.44822162</f>
         <v>6.4655290203201856</v>
       </c>
-      <c r="H3">
-        <f>G3/($B$29*$E$1*$H$1)</f>
+      <c r="I3">
+        <f>H3/($C$29*$F$1*$I$1)</f>
         <v>0.56366431276522444</v>
       </c>
-      <c r="I3">
-        <f>$B$29*$K$1*$N$1*H3</f>
+      <c r="J3">
+        <f>$C$29*$L$1*$O$1*I3</f>
         <v>6.9843677688643986</v>
       </c>
-      <c r="J3">
-        <f>I3*0.224809</f>
+      <c r="K3">
+        <f>J3*0.224809</f>
         <v>1.5701487337506366</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-1.5</v>
       </c>
       <c r="B4">
+        <f t="shared" ref="B4:B25" si="0">2.5+A4</f>
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>0.36459276116</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1.7234647327299999</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.39125771088</v>
       </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E30" si="0">D4*248.82</f>
+      <c r="F4">
+        <f t="shared" ref="F4:F25" si="1">E4*248.82</f>
         <v>97.352743621161594</v>
       </c>
-      <c r="F4">
-        <f t="shared" ref="F4:G67" si="1">B4*4.44822162</f>
+      <c r="G4">
+        <f t="shared" ref="G4:H25" si="2">C4*4.44822162</f>
         <v>1.6217894026874082</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
+      <c r="H4">
+        <f t="shared" si="2"/>
         <v>7.6663530854371071</v>
       </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H25" si="2">G4/($B$29*$E$1*$H$1)</f>
+      <c r="I4">
+        <f t="shared" ref="I4:I25" si="3">H4/($C$29*$F$1*$I$1)</f>
         <v>0.66835206055644125</v>
       </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I25" si="3">$B$29*$K$1*$N$1*H4</f>
+      <c r="J4">
+        <f t="shared" ref="J4:J25" si="4">$C$29*$L$1*$O$1*I4</f>
         <v>8.2815542589598383</v>
       </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J30" si="4">I4*0.224809</f>
+      <c r="K4">
+        <f t="shared" ref="K4:K25" si="5">J4*0.224809</f>
         <v>1.8617679314025024</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-0.5</v>
       </c>
       <c r="B5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C5">
         <v>0.32040240911000001</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1.7167117408200001</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.39378885573</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>97.982543082738601</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
+        <v>97.982543082738601</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
         <v>1.4252209233031869</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
+      <c r="H5">
+        <f t="shared" si="2"/>
         <v>7.6363142808233606</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="2"/>
+      <c r="I5">
+        <f t="shared" si="3"/>
         <v>0.66573327992678477</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="3"/>
-        <v>8.2491049329881978</v>
       </c>
       <c r="J5">
         <f t="shared" si="4"/>
+        <v>8.2491049329881978</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
         <v>1.8544730308801438</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" s="4">
-        <f>MAX(H$3:H$1048576)</f>
+      <c r="N5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="4">
+        <f>MAX(I$3:I$1048576)</f>
         <v>1.2292832077925455</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.5</v>
       </c>
       <c r="B6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>0.37969698146000003</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>2.0104944817299999</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.39987793059999999</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>99.497626691891995</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
+        <v>99.497626691891995</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
         <v>1.6889763219791112</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
+      <c r="H6">
+        <f t="shared" si="2"/>
         <v>8.9431250205220802</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="2"/>
+      <c r="I6">
+        <f t="shared" si="3"/>
         <v>0.77966093769329736</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="3"/>
-        <v>9.6607832011812604</v>
       </c>
       <c r="J6">
         <f t="shared" si="4"/>
+        <v>9.6607832011812604</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
         <v>2.1718310106743579</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="4">
-        <f>MAX(J:J)</f>
+      <c r="N6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="4">
+        <f>MAX(K:K)</f>
         <v>3.4243031329541149</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1.5</v>
       </c>
       <c r="B7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7">
         <v>0.30461183659000002</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>2.2125110079999999</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.39673389847000001</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>98.715328617305403</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
+        <v>98.715328617305403</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
         <v>1.3549809572275451</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
+      <c r="H7">
+        <f t="shared" si="2"/>
         <v>9.8417393002735931</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="2"/>
+      <c r="I7">
+        <f t="shared" si="3"/>
         <v>0.85800206010497437</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="3"/>
-        <v>10.631508503381969</v>
       </c>
       <c r="J7">
         <f t="shared" si="4"/>
+        <v>10.631508503381969</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
         <v>2.3900587951367971</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2.5</v>
       </c>
       <c r="B8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8">
         <v>0.26711285980999999</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>2.4022338051799998</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.40088879662999999</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>99.749150377476596</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
+        <v>99.749150377476596</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
         <v>1.1881771979868712</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
+      <c r="H8">
+        <f t="shared" si="2"/>
         <v>10.685668348496543</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
+      <c r="I8">
+        <f t="shared" si="3"/>
         <v>0.93157572832209445</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="3"/>
-        <v>11.543160253005526</v>
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
+        <v>11.543160253005526</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
         <v>2.5950063133179193</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3.5</v>
       </c>
       <c r="B9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9">
         <v>0.32761805017000001</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>2.2966626297300001</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.38554273603</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>95.930743578984604</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
+        <v>95.930743578984604</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
         <v>1.4573176938684387</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
+      <c r="H9">
+        <f t="shared" si="2"/>
         <v>10.216064363411041</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="2"/>
+      <c r="I9">
+        <f t="shared" si="3"/>
         <v>0.8906356897431752</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="3"/>
-        <v>11.035871997511927</v>
       </c>
       <c r="J9">
         <f t="shared" si="4"/>
+        <v>11.035871997511927</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
         <v>2.4809633478886588</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4.5</v>
       </c>
       <c r="B10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10">
         <v>0.26808761410999998</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>2.3946484578199998</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.39807110707999999</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>99.048052863645594</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
+        <v>99.048052863645594</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
         <v>1.1925131211383191</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
+      <c r="H10">
+        <f t="shared" si="2"/>
         <v>10.651927042374581</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="2"/>
+      <c r="I10">
+        <f t="shared" si="3"/>
         <v>0.92863416390141618</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="3"/>
-        <v>11.506711311207109</v>
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
+        <v>11.506711311207109</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
         <v>2.5868122631611592</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5.5</v>
       </c>
       <c r="B11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11">
         <v>0.29841230981</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>2.4953341458199998</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.39338291739999998</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>97.881537507467996</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
+        <v>97.881537507467996</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
         <v>1.3274040881709801</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
+      <c r="H11">
+        <f t="shared" si="2"/>
         <v>11.099799296560755</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="2"/>
+      <c r="I11">
+        <f t="shared" si="3"/>
         <v>0.96767963188540496</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="3"/>
-        <v>11.990523931469953</v>
       </c>
       <c r="J11">
         <f t="shared" si="4"/>
+        <v>11.990523931469953</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
         <v>2.6955776945098289</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6.5</v>
       </c>
       <c r="B12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12">
         <v>0.55304227825999996</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>2.14680742555</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.3821439975</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>95.085069457949999</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
+        <v>95.085069457949999</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
         <v>2.460054618930188</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
+      <c r="H12">
+        <f t="shared" si="2"/>
         <v>9.5494752043080506</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="2"/>
+      <c r="I12">
+        <f t="shared" si="3"/>
         <v>0.832522499147067</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="3"/>
-        <v>10.315791115764871</v>
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
+        <v>10.315791115764871</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
         <v>2.319082684943985</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>7.5</v>
       </c>
       <c r="B13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13">
         <v>0.55494371985000002</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>2.3884870542700001</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.38782713405000002</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>96.499147494321008</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
+        <v>96.499147494321008</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
         <v>2.4685126525199932</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
+      <c r="H13">
+        <f t="shared" si="2"/>
         <v>10.624519753893928</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="2"/>
+      <c r="I13">
+        <f t="shared" si="3"/>
         <v>0.92624479864179809</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="3"/>
-        <v>11.477104672416282</v>
       </c>
       <c r="J13">
         <f t="shared" si="4"/>
+        <v>11.477104672416282</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
         <v>2.580156424301232</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>8.5</v>
       </c>
       <c r="B14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14">
         <v>0.57971947020000003</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>2.40445660527</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.40614211613000001</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>101.05628133546659</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
+        <v>101.05628133546659</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
         <v>2.5787206808785856</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
+      <c r="H14">
+        <f t="shared" si="2"/>
         <v>10.69555585591382</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
+      <c r="I14">
+        <f t="shared" si="3"/>
         <v>0.93243772044304929</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="3"/>
-        <v>11.553841202376042</v>
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
+        <v>11.553841202376042</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
         <v>2.5974074868649555</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>9.5</v>
       </c>
       <c r="B15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15">
         <v>0.54111159862000002</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>2.4714487539999999</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.39203774923000001</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>97.546832763408602</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
+        <v>97.546832763408602</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
         <v>2.4069843118142464</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
+      <c r="H15">
+        <f t="shared" si="2"/>
         <v>10.993551780264861</v>
       </c>
-      <c r="H15">
-        <f t="shared" si="2"/>
+      <c r="I15">
+        <f t="shared" si="3"/>
         <v>0.9584169817499375</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="3"/>
-        <v>11.875750379915745</v>
       </c>
       <c r="J15">
         <f t="shared" si="4"/>
+        <v>11.875750379915745</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
         <v>2.6697755671584789</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>11.5</v>
       </c>
       <c r="B16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16">
         <v>0.60425264981000004</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>2.70251974955</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.39428234938000001</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>98.105334172731602</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
+        <v>98.105334172731602</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
         <v>2.6878497008271309</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
+      <c r="H16">
+        <f t="shared" si="2"/>
         <v>12.021406778425295</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="2"/>
+      <c r="I16">
+        <f t="shared" si="3"/>
         <v>1.0480252998534592</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="3"/>
-        <v>12.986087569286585</v>
       </c>
       <c r="J16">
         <f t="shared" si="4"/>
+        <v>12.986087569286585</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
         <v>2.919389360363748</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>12.5</v>
       </c>
       <c r="B17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17">
         <v>0.61535501185999997</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>2.6974619625499998</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.3912497513</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>97.350763118465991</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
+        <v>97.350763118465991</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
         <v>2.7372354677310082</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
+      <c r="H17">
+        <f t="shared" si="2"/>
         <v>11.99890862094254</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="2"/>
+      <c r="I17">
+        <f t="shared" si="3"/>
         <v>1.0460639122491124</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="3"/>
-        <v>12.961784004104597</v>
       </c>
       <c r="J17">
         <f t="shared" si="4"/>
+        <v>12.961784004104597</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
         <v>2.9139257001787504</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>13.5</v>
       </c>
       <c r="B18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18">
         <v>0.84055790811999997</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>2.8940335203599998</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.39697268572</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>98.77474366085039</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
+        <v>98.77474366085039</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
         <v>3.7389878597613575</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
+      <c r="H18">
+        <f t="shared" si="2"/>
         <v>12.873302474270062</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="2"/>
+      <c r="I18">
+        <f t="shared" si="3"/>
         <v>1.1222934997852589</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="3"/>
-        <v>13.90634526541519</v>
       </c>
       <c r="J18">
         <f t="shared" si="4"/>
+        <v>13.90634526541519</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
         <v>3.1262715727727235</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>14.5</v>
       </c>
       <c r="B19">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C19">
         <v>0.99083327460000004</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>2.9873663779099999</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.39152037685000002</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>97.418100167817002</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
+        <v>97.418100167817002</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
         <v>4.407445993891117</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="1"/>
+      <c r="H19">
+        <f t="shared" si="2"/>
         <v>13.288467709080352</v>
       </c>
-      <c r="H19">
-        <f t="shared" si="2"/>
+      <c r="I19">
+        <f t="shared" si="3"/>
         <v>1.1584875723859518</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="3"/>
-        <v>14.354826228944825</v>
       </c>
       <c r="J19">
         <f t="shared" si="4"/>
+        <v>14.354826228944825</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
         <v>3.2270941297028575</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>15.5</v>
       </c>
       <c r="B20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C20">
         <v>0.93069026358999996</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>3.1699255230899999</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.39492707495000001</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>98.265754789059002</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
+        <v>98.265754789059002</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
         <v>4.1399165520245367</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
+      <c r="H20">
+        <f t="shared" si="2"/>
         <v>14.100531245598747</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="2"/>
+      <c r="I20">
+        <f t="shared" si="3"/>
         <v>1.2292832077925455</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="3"/>
-        <v>15.232055357899883</v>
       </c>
       <c r="J20">
         <f t="shared" si="4"/>
+        <v>15.232055357899883</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="5"/>
         <v>3.4243031329541149</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>16.5</v>
       </c>
       <c r="B21">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C21">
         <v>1.02596355371</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>3.1120554122700002</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.39391620893000001</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>98.014231105962594</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
+        <v>98.014231105962594</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
         <v>4.5637132609448532</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
+      <c r="H21">
+        <f t="shared" si="2"/>
         <v>13.843112167497427</v>
       </c>
-      <c r="H21">
-        <f t="shared" si="2"/>
+      <c r="I21">
+        <f t="shared" si="3"/>
         <v>1.2068414327584196</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="3"/>
-        <v>14.953979193284258</v>
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
+        <v>14.953979193284258</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="5"/>
         <v>3.3617891084630411</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>17.5</v>
       </c>
       <c r="B22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C22">
         <v>1.03509516825</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>3.0372550522699999</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.39015132995000001</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>97.077453918158994</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
+        <v>97.077453918158994</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
         <v>4.6043327061671873</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
+      <c r="H22">
+        <f t="shared" si="2"/>
         <v>13.510383588961643</v>
       </c>
-      <c r="H22">
-        <f t="shared" si="2"/>
+      <c r="I22">
+        <f t="shared" si="3"/>
         <v>1.1778341813845119</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="3"/>
-        <v>14.594550173261036</v>
       </c>
       <c r="J22">
         <f t="shared" si="4"/>
+        <v>14.594550173261036</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="5"/>
         <v>3.2809862299006403</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>18.5</v>
       </c>
       <c r="B23">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>1.1253817852900001</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>3.0936426272699999</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.38904494902999998</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>96.802164217644588</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
+        <v>96.802164217644588</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
         <v>5.0059475880811766</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
+      <c r="H23">
+        <f t="shared" si="2"/>
         <v>13.761208019176015</v>
       </c>
-      <c r="H23">
-        <f t="shared" si="2"/>
+      <c r="I23">
+        <f t="shared" si="3"/>
         <v>1.1997010355332094</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="3"/>
-        <v>14.865502489850634</v>
       </c>
       <c r="J23">
         <f t="shared" si="4"/>
+        <v>14.865502489850634</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="5"/>
         <v>3.3418987492408312</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>19.5</v>
       </c>
       <c r="B24">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C24">
         <v>1.44175774372</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>3.0571610638200002</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.38793856809999999</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>96.526874514641989</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
+        <v>96.526874514641989</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
         <v>6.4132579664177234</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="1"/>
+      <c r="H24">
+        <f t="shared" si="2"/>
         <v>13.598929939906325</v>
       </c>
-      <c r="H24">
-        <f t="shared" si="2"/>
+      <c r="I24">
+        <f t="shared" si="3"/>
         <v>1.1855536453133322</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="3"/>
-        <v>14.690202095577821</v>
       </c>
       <c r="J24">
         <f t="shared" si="4"/>
+        <v>14.690202095577821</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="5"/>
         <v>3.3024896429047543</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>20.5</v>
       </c>
       <c r="B25">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C25">
         <v>1.45202508116</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>2.8736784229999999</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.40248867119999998</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>100.14723116798399</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
+        <v>100.14723116798399</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
         <v>6.4589293587981667</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="1"/>
+      <c r="H25">
+        <f t="shared" si="2"/>
         <v>12.782758490116105</v>
       </c>
-      <c r="H25">
-        <f t="shared" si="2"/>
+      <c r="I25">
+        <f t="shared" si="3"/>
         <v>1.1143998823499701</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="3"/>
-        <v>13.808535405989621</v>
       </c>
       <c r="J25">
         <f t="shared" si="4"/>
+        <v>13.808535405989621</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="5"/>
         <v>3.1042830360851208</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29">
-        <f>AVERAGE(E3:E25)</f>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <f>AVERAGE(F3:F25)</f>
         <v>97.990292870269784</v>
       </c>
     </row>
@@ -3834,1248 +3970,1372 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E545F03-1D0D-2D47-BB11-364EDC77AB76}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1">
+        <v>16.933333300000001</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B1">
-        <v>16.933333300000001</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1">
+        <v>0.12801599999999999</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="E1">
-        <v>0.12801599999999999</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1">
+        <v>0.91439999999999999</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1">
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1">
+        <v>0.35560000000000003</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1">
-        <v>0.91439999999999999</v>
-      </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1">
-        <v>0.35560000000000003</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N1">
-        <v>0.35560000000000003</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-2.5</v>
       </c>
       <c r="B3">
+        <f>2.5+A3</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>0.37989036734999998</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1.82971535445</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.70161745926999997</v>
       </c>
-      <c r="E3">
-        <f>D3*248.82</f>
+      <c r="F3">
+        <f>E3*248.82</f>
         <v>174.57645621556139</v>
-      </c>
-      <c r="F3">
-        <f>B3*4.44822162</f>
-        <v>1.689836545276012</v>
       </c>
       <c r="G3">
         <f>C3*4.44822162</f>
+        <v>1.689836545276012</v>
+      </c>
+      <c r="H3">
+        <f>D3*4.44822162</f>
         <v>8.1389793981104539</v>
       </c>
-      <c r="H3">
-        <f>G3/($B$35*$E$1*$H$1)</f>
+      <c r="I3">
+        <f>H3/($C$35*$F$1*$I$1)</f>
         <v>0.40580082444362725</v>
       </c>
-      <c r="I3">
-        <f>$B$35*$K$1*$N$1*H3</f>
+      <c r="J3">
+        <f>$C$35*$L$1*$O$1*I3</f>
         <v>8.7921073745020362</v>
       </c>
-      <c r="J3">
-        <f>I3*0.224809</f>
+      <c r="K3">
+        <f>J3*0.224809</f>
         <v>1.9765448667544283</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-1.5</v>
       </c>
       <c r="B4">
+        <f t="shared" ref="B4:B32" si="0">2.5+A4</f>
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>0.40950411840000001</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1.89863693973</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.6853719667</v>
       </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E32" si="0">D4*248.82</f>
+      <c r="F4">
+        <f t="shared" ref="F4:F32" si="1">E4*248.82</f>
         <v>170.53425275429399</v>
       </c>
-      <c r="F4">
-        <f t="shared" ref="F4:G67" si="1">B4*4.44822162</f>
+      <c r="G4">
+        <f t="shared" ref="G4:H32" si="2">C4*4.44822162</f>
         <v>1.8215650729459198</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
+      <c r="H4">
+        <f t="shared" si="2"/>
         <v>8.4455578838376226</v>
       </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H32" si="2">G4/($B$35*$E$1*$H$1)</f>
+      <c r="I4">
+        <f t="shared" ref="I4:I32" si="3">H4/($C$35*$F$1*$I$1)</f>
         <v>0.4210865004699908</v>
       </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I32" si="3">$B$35*$K$1*$N$1*H4</f>
+      <c r="J4">
+        <f t="shared" ref="J4:J32" si="4">$C$35*$L$1*$O$1*I4</f>
         <v>9.1232878374789159</v>
       </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J32" si="4">I4*0.224809</f>
+      <c r="K4">
+        <f t="shared" ref="K4:K32" si="5">J4*0.224809</f>
         <v>2.0509972154557978</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-0.5</v>
       </c>
       <c r="B5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C5">
         <v>0.46455314392000002</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2.1471457229099999</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.71475871759999998</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>177.846264113232</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
+        <v>177.846264113232</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
         <v>2.0664353384239158</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
+      <c r="H5">
+        <f t="shared" si="2"/>
         <v>9.5509800259387916</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="2"/>
+      <c r="I5">
+        <f t="shared" si="3"/>
         <v>0.47620166843896705</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="3"/>
-        <v>10.317416694686969</v>
       </c>
       <c r="J5">
         <f t="shared" si="4"/>
+        <v>10.317416694686969</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
         <v>2.3194481297158829</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" s="4">
-        <f>MAX(H$3:H$1048576)</f>
+      <c r="N5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="4">
+        <f>MAX(I$3:I$1048576)</f>
         <v>0.98955812407056676</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.5</v>
       </c>
       <c r="B6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>0.47655648299999998</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>2.4556258788199998</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.7059076702</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>175.643946499164</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
+        <v>175.643946499164</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
         <v>2.1198288508317624</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
+      <c r="H6">
+        <f t="shared" si="2"/>
         <v>10.923168124798623</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="2"/>
+      <c r="I6">
+        <f t="shared" si="3"/>
         <v>0.5446175022397417</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="3"/>
-        <v>11.799718653331851</v>
       </c>
       <c r="J6">
         <f t="shared" si="4"/>
+        <v>11.799718653331851</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
         <v>2.6526829507368803</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="4">
-        <f>MAX(J:J)</f>
+      <c r="N6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="4">
+        <f>MAX(K:K)</f>
         <v>4.8198670694384687</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1.5</v>
       </c>
       <c r="B7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7">
         <v>0.51027940469999999</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>2.8829690650000002</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.70036780600000004</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>174.26551748892001</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
+        <v>174.26551748892001</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
         <v>2.2698358802272698</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
+      <c r="H7">
+        <f t="shared" si="2"/>
         <v>12.824085324724185</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="2"/>
+      <c r="I7">
+        <f t="shared" si="3"/>
         <v>0.63939520460227017</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="3"/>
-        <v>13.853178591523042</v>
       </c>
       <c r="J7">
         <f t="shared" si="4"/>
+        <v>13.853178591523042</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
         <v>3.1143192259817036</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2.5</v>
       </c>
       <c r="B8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8">
         <v>0.70034307915000005</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>2.6410462933600001</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.67812875345000001</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>168.731996433429</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
+        <v>168.731996433429</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
         <v>3.1152812260924012</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
+      <c r="H8">
+        <f t="shared" si="2"/>
         <v>11.747959221544814</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
+      <c r="I8">
+        <f t="shared" si="3"/>
         <v>0.58574070586046489</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="3"/>
-        <v>12.690696689940388</v>
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
+        <v>12.690696689940388</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
         <v>2.8529828321688089</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3.5</v>
       </c>
       <c r="B9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9">
         <v>0.66536817945000004</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>2.86954980882</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.69310071402999995</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>172.45731966494458</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
+        <v>172.45731966494458</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
         <v>2.95970512108953</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
+      <c r="H9">
+        <f t="shared" si="2"/>
         <v>12.76439349925999</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="2"/>
+      <c r="I9">
+        <f t="shared" si="3"/>
         <v>0.63641903390554388</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="3"/>
-        <v>13.788696681299376</v>
       </c>
       <c r="J9">
         <f t="shared" si="4"/>
+        <v>13.788696681299376</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
         <v>3.0998231122262316</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4.5</v>
       </c>
       <c r="B10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10">
         <v>0.66554703344999999</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>3.0361513066399999</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.68835680733000004</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>171.27694079985059</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
+        <v>171.27694079985059</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
         <v>2.9605007033191533</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
+      <c r="H10">
+        <f t="shared" si="2"/>
         <v>13.505473883787298</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="2"/>
+      <c r="I10">
+        <f t="shared" si="3"/>
         <v>0.67336851077607141</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="3"/>
-        <v>14.589246479399863</v>
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
+        <v>14.589246479399863</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
         <v>3.279793911787404</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5.5</v>
       </c>
       <c r="B11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11">
         <v>0.73790577266000001</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>3.1471064430000002</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.69143716285000001</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>172.043394860337</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
+        <v>172.043394860337</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
         <v>3.282368411469017</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
+      <c r="H11">
+        <f t="shared" si="2"/>
         <v>13.999026920193899</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="2"/>
+      <c r="I11">
+        <f t="shared" si="3"/>
         <v>0.69797653830430817</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="3"/>
-        <v>15.122405623666253</v>
       </c>
       <c r="J11">
         <f t="shared" si="4"/>
+        <v>15.122405623666253</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
         <v>3.3996528858507871</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6.5</v>
       </c>
       <c r="B12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12">
         <v>0.88122818988999996</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>2.9773219720899999</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.64908426427999999</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>161.5051466381496</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
+        <v>161.5051466381496</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
         <v>3.9198982864221632</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
+      <c r="H12">
+        <f t="shared" si="2"/>
         <v>13.243787965951775</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="2"/>
+      <c r="I12">
+        <f t="shared" si="3"/>
         <v>0.66032113026204819</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="3"/>
-        <v>14.306561074330626</v>
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
+        <v>14.306561074330626</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
         <v>3.2162436885591936</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>7.5</v>
       </c>
       <c r="B13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13">
         <v>0.96387774112000002</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>3.0562317477300001</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.66650777395000005</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>165.840464314239</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
+        <v>165.840464314239</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
         <v>4.2875418070867468</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
+      <c r="H13">
+        <f t="shared" si="2"/>
         <v>13.594796135982973</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="2"/>
+      <c r="I13">
+        <f t="shared" si="3"/>
         <v>0.67782202291920102</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="3"/>
-        <v>14.685736566648279</v>
       </c>
       <c r="J13">
         <f t="shared" si="4"/>
+        <v>14.685736566648279</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
         <v>3.301485751811633</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>8.5</v>
       </c>
       <c r="B14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14">
         <v>1.0217828414600001</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>3.33629451436</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.66809172937000005</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>166.23458410184341</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
+        <v>166.23458410184341</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
         <v>4.5451165263274049</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
+      <c r="H14">
+        <f t="shared" si="2"/>
         <v>14.840577389463553</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
+      <c r="I14">
+        <f t="shared" si="3"/>
         <v>0.73993534634845071</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="3"/>
-        <v>16.031487920716806</v>
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
+        <v>16.031487920716806</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
         <v>3.6040227679684245</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>9.5</v>
       </c>
       <c r="B15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15">
         <v>1.0761432790900001</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>3.3628587364500002</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.69275049273</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>172.37017760107861</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
+        <v>172.37017760107861</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
         <v>4.7869238002658321</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
+      <c r="H15">
+        <f t="shared" si="2"/>
         <v>14.958740936482773</v>
       </c>
-      <c r="H15">
-        <f t="shared" si="2"/>
+      <c r="I15">
+        <f t="shared" si="3"/>
         <v>0.74582685466345078</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="3"/>
-        <v>16.159133727682011</v>
       </c>
       <c r="J15">
         <f t="shared" si="4"/>
+        <v>16.159133727682011</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
         <v>3.6327186941864653</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10.5</v>
       </c>
       <c r="B16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16">
         <v>1.02331763235</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>3.40811048664</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.70351979769999995</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>175.04979606371398</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
+        <v>175.04979606371398</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
         <v>4.551943616346481</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
+      <c r="H16">
+        <f t="shared" si="2"/>
         <v>15.16003075002077</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="2"/>
+      <c r="I16">
+        <f t="shared" si="3"/>
         <v>0.7558629498899343</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="3"/>
-        <v>16.376576427491578</v>
       </c>
       <c r="J16">
         <f t="shared" si="4"/>
+        <v>16.376576427491578</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
         <v>3.6816017700879544</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>11.5</v>
       </c>
       <c r="B17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17">
         <v>1.1809349555199999</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>3.6313510125500001</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.65326304115</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>162.54490989894299</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
+        <v>162.54490989894299</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
         <v>5.2530604009578017</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
+      <c r="H17">
+        <f t="shared" si="2"/>
         <v>16.153054083833801</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="2"/>
+      <c r="I17">
+        <f t="shared" si="3"/>
         <v>0.80537403326319368</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="3"/>
-        <v>17.449286818956271</v>
       </c>
       <c r="J17">
         <f t="shared" si="4"/>
+        <v>17.449286818956271</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
         <v>3.9227567204827403</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>12.5</v>
       </c>
       <c r="B18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18">
         <v>1.2061053025099999</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>3.6001773514500002</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.76888382759999996</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>191.31367398343198</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
+        <v>191.31367398343198</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
         <v>5.3650236826216222</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
+      <c r="H18">
+        <f t="shared" si="2"/>
         <v>16.014386730554229</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="2"/>
+      <c r="I18">
+        <f t="shared" si="3"/>
         <v>0.79846022705582931</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="3"/>
-        <v>17.299491838561671</v>
       </c>
       <c r="J18">
         <f t="shared" si="4"/>
+        <v>17.299491838561671</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
         <v>3.8890814607352109</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>13.5</v>
       </c>
       <c r="B19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C19">
         <v>1.3288762773</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>3.8004453652699999</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.72417489482999997</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>180.18919733160058</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
+        <v>180.18919733160058</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
         <v>5.9111361869909755</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="1"/>
+      <c r="H19">
+        <f t="shared" si="2"/>
         <v>16.90522323942281</v>
       </c>
-      <c r="H19">
-        <f t="shared" si="2"/>
+      <c r="I19">
+        <f t="shared" si="3"/>
         <v>0.84287638442161394</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="3"/>
-        <v>18.261815227771557</v>
       </c>
       <c r="J19">
         <f t="shared" si="4"/>
+        <v>18.261815227771557</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
         <v>4.1054204195400956</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>13.5</v>
       </c>
       <c r="B20">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C20">
         <v>1.33669778629</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>3.9188009295500001</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.70445106798000001</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>175.2815147347836</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
+        <v>175.2815147347836</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
         <v>5.9459279923813178</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
+      <c r="H20">
+        <f t="shared" si="2"/>
         <v>17.431695019300406</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="2"/>
+      <c r="I20">
+        <f t="shared" si="3"/>
         <v>0.869125705358614</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="3"/>
-        <v>18.830534743071432</v>
       </c>
       <c r="J20">
         <f t="shared" si="4"/>
+        <v>18.830534743071432</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="5"/>
         <v>4.2332736850551456</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>14.5</v>
       </c>
       <c r="B21">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C21">
         <v>1.39009241231</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>4.0406417753600001</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.65580214558000005</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>163.17668986321561</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
+        <v>163.17668986321561</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
         <v>6.1834391222352965</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
+      <c r="H21">
+        <f t="shared" si="2"/>
         <v>17.973670103831537</v>
       </c>
-      <c r="H21">
-        <f t="shared" si="2"/>
+      <c r="I21">
+        <f t="shared" si="3"/>
         <v>0.89614800451588883</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="3"/>
-        <v>19.416001655373581</v>
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
+        <v>19.416001655373581</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="5"/>
         <v>4.3648919161428799</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>15.5</v>
       </c>
       <c r="B22">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C22">
         <v>1.6240054983700001</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>4.3891319517299996</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.67094921679999997</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>166.94558412417598</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
+        <v>166.94558412417598</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
         <v>7.2239363688483094</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
+      <c r="H22">
+        <f t="shared" si="2"/>
         <v>19.523831640718182</v>
       </c>
-      <c r="H22">
-        <f t="shared" si="2"/>
+      <c r="I22">
+        <f t="shared" si="3"/>
         <v>0.97343740395034895</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="3"/>
-        <v>21.09055887114619</v>
       </c>
       <c r="J22">
         <f t="shared" si="4"/>
+        <v>21.09055887114619</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="5"/>
         <v>4.7413474492635039</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>16.5</v>
       </c>
       <c r="B23">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C23">
         <v>1.63946742667</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>4.2847211034499999</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.70942580234999997</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>176.519328140727</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
+        <v>176.519328140727</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
         <v>7.2927144525992587</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
+      <c r="H23">
+        <f t="shared" si="2"/>
         <v>19.059389048036547</v>
       </c>
-      <c r="H23">
-        <f t="shared" si="2"/>
+      <c r="I23">
+        <f t="shared" si="3"/>
         <v>0.95028079207089156</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="3"/>
-        <v>20.588846193866644</v>
       </c>
       <c r="J23">
         <f t="shared" si="4"/>
+        <v>20.588846193866644</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="5"/>
         <v>4.6285579239969667</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>17.5</v>
       </c>
       <c r="B24">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C24">
         <v>1.65561011801</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>4.32917277555</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.69538511204999998</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>173.02572358028098</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
+        <v>173.02572358028098</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
         <v>7.3645207212228332</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="1"/>
+      <c r="H24">
+        <f t="shared" si="2"/>
         <v>19.257119936916919</v>
       </c>
-      <c r="H24">
-        <f t="shared" si="2"/>
+      <c r="I24">
+        <f t="shared" si="3"/>
         <v>0.96013944311309163</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="3"/>
-        <v>20.802444376299146</v>
       </c>
       <c r="J24">
         <f t="shared" si="4"/>
+        <v>20.802444376299146</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="5"/>
         <v>4.676576717791435</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>18.5</v>
       </c>
       <c r="B25">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C25">
         <v>1.6265821138100001</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>4.4618186673600002</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.65300833474999997</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>162.48153385249498</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
+        <v>162.48153385249498</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
         <v>7.2353977253549431</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="1"/>
+      <c r="H25">
+        <f t="shared" si="2"/>
         <v>19.847158260670341</v>
       </c>
-      <c r="H25">
-        <f t="shared" si="2"/>
+      <c r="I25">
+        <f t="shared" si="3"/>
         <v>0.98955812407056676</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="3"/>
-        <v>21.439831454427843</v>
       </c>
       <c r="J25">
         <f t="shared" si="4"/>
+        <v>21.439831454427843</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="5"/>
         <v>4.8198670694384687</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>19.5</v>
       </c>
       <c r="B26">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C26">
         <v>1.7963089706199999</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>4.4540597759100002</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.69501897160000004</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>172.93462051351202</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
+        <v>172.93462051351202</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
         <v>7.990380399311829</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="1"/>
+      <c r="H26">
+        <f t="shared" si="2"/>
         <v>19.812644991975219</v>
       </c>
-      <c r="H26">
-        <f t="shared" si="2"/>
+      <c r="I26">
+        <f t="shared" si="3"/>
         <v>0.98783732933628143</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="3"/>
-        <v>21.402548602442369</v>
       </c>
       <c r="J26">
         <f t="shared" si="4"/>
+        <v>21.402548602442369</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="5"/>
         <v>4.8114855487664672</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>20.5</v>
       </c>
       <c r="B27">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C27">
         <v>1.97357452354</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>4.2254795919100001</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.70735631285</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>176.00439776333698</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
+        <v>176.00439776333698</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
         <v>8.778896864291827</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="1"/>
+      <c r="H27">
+        <f t="shared" si="2"/>
         <v>18.795869675602841</v>
       </c>
-      <c r="H27">
-        <f t="shared" si="2"/>
+      <c r="I27">
+        <f t="shared" si="3"/>
         <v>0.93714199746781257</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="3"/>
-        <v>20.304180205126531</v>
       </c>
       <c r="J27">
         <f t="shared" si="4"/>
+        <v>20.304180205126531</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="5"/>
         <v>4.564562447734291</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>21.5</v>
       </c>
       <c r="B28">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C28">
         <v>1.9509651422600001</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>4.2051093389099998</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.65764080739999997</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>163.63418569726798</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
+        <v>163.63418569726798</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
         <v>8.6783253256673074</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="1"/>
+      <c r="H28">
+        <f t="shared" si="2"/>
         <v>18.70525827580337</v>
       </c>
-      <c r="H28">
-        <f t="shared" si="2"/>
+      <c r="I28">
+        <f t="shared" si="3"/>
         <v>0.93262420980132055</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="3"/>
-        <v>20.206297520157968</v>
       </c>
       <c r="J28">
         <f t="shared" si="4"/>
+        <v>20.206297520157968</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="5"/>
         <v>4.5425575392091924</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>21.5</v>
       </c>
       <c r="B29">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C29">
         <v>1.9428228139099999</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>4.2232481075499999</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.68101011960000002</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>169.44893795887199</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
+        <v>169.44893795887199</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
         <v>8.6421064446636979</v>
       </c>
-      <c r="G29">
-        <f t="shared" si="1"/>
+      <c r="H29">
+        <f t="shared" si="2"/>
         <v>18.785943538627993</v>
       </c>
-      <c r="H29">
-        <f t="shared" si="2"/>
+      <c r="I29">
+        <f t="shared" si="3"/>
         <v>0.93664709087438036</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="3"/>
-        <v>20.293457526295676</v>
       </c>
       <c r="J29">
         <f t="shared" si="4"/>
+        <v>20.293457526295676</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="5"/>
         <v>4.5621518930290046</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>22.5</v>
       </c>
       <c r="B30">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C30">
         <v>1.9409638501499999</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>4.2547856345500001</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.66049033525</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>164.34320521690501</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
+        <v>164.34320521690501</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
         <v>8.6338373618756705</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="1"/>
+      <c r="H30">
+        <f t="shared" si="2"/>
         <v>18.926229448070728</v>
       </c>
-      <c r="H30">
-        <f t="shared" si="2"/>
+      <c r="I30">
+        <f t="shared" si="3"/>
         <v>0.94364159656423408</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="3"/>
-        <v>20.445000946989989</v>
       </c>
       <c r="J30">
         <f t="shared" si="4"/>
+        <v>20.445000946989989</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="5"/>
         <v>4.5962202178918723</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>23.5</v>
       </c>
       <c r="B31">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C31">
         <v>1.91660393535</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>4.3976488757299999</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.6338894356</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>157.724369365992</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
+        <v>157.724369365992</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
         <v>8.5254790622009526</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="1"/>
+      <c r="H31">
+        <f t="shared" si="2"/>
         <v>19.56171680619088</v>
       </c>
-      <c r="H31">
-        <f t="shared" si="2"/>
+      <c r="I31">
+        <f t="shared" si="3"/>
         <v>0.97532631785847035</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="3"/>
-        <v>21.131484204218548</v>
       </c>
       <c r="J31">
         <f t="shared" si="4"/>
+        <v>21.131484204218548</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="5"/>
         <v>4.7505478324661681</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>24.5</v>
       </c>
       <c r="B32">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C32">
         <v>1.9183131088900001</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>4.2879624974499997</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>0.74845159857999999</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>186.22972675867558</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
+        <v>186.22972675867558</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
         <v>8.5330818448939123</v>
       </c>
-      <c r="G32">
-        <f t="shared" si="1"/>
+      <c r="H32">
+        <f t="shared" si="2"/>
         <v>19.073807486906283</v>
       </c>
-      <c r="H32">
-        <f t="shared" si="2"/>
+      <c r="I32">
+        <f t="shared" si="3"/>
         <v>0.95099968004127855</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="3"/>
-        <v>20.604421667954323</v>
       </c>
       <c r="J32">
         <f t="shared" si="4"/>
+        <v>20.604421667954323</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="5"/>
         <v>4.632059430751144</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35">
-        <f>AVERAGE(E3:E32)</f>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35">
+        <f>AVERAGE(F3:F32)</f>
         <v>171.33912854443238</v>
       </c>
     </row>
@@ -5104,51 +5364,51 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3">
         <v>0.35972222222222222</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -6239,51 +6499,51 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3">
         <v>0.3659722222222222</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -7184,51 +7444,51 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3">
         <v>0.36874999999999997</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">

--- a/Wind_Tunnel_Testing/WIND TUNNEL TESTING.xlsx
+++ b/Wind_Tunnel_Testing/WIND TUNNEL TESTING.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/G/Programs/GitHub/Sizing_Algorithm/Wind_Tunnel_Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590F59E9-2322-EF4F-BDFA-F94CC2614B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509A4896-A33F-2741-9A04-460C7AB02353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33680" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{D897026C-7703-4763-9101-B209D1D946C8}"/>
   </bookViews>
@@ -1684,7 +1684,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1728,7 +1728,7 @@
         <v>27</v>
       </c>
       <c r="N1">
-        <v>0.35560000000000003</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1794,12 +1794,12 @@
         <v>0.4723914001721809</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I30" si="1">$B$33*$K$1*$N$1*H3</f>
-        <v>5.8518642350500523</v>
+        <f>$B$33*$K$1*$N$1*H3</f>
+        <v>41.799030250357511</v>
       </c>
       <c r="J3">
         <f>I3*0.224809</f>
-        <v>1.3155517468173672</v>
+        <v>9.3967981915526213</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1817,15 +1817,15 @@
         <v>0.39125771088</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E30" si="2">D4*248.82</f>
+        <f t="shared" ref="E4:E30" si="1">D4*248.82</f>
         <v>97.352743621161594</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:G30" si="3">B4*4.44822162</f>
+        <f t="shared" ref="F4:G30" si="2">B4*4.44822162</f>
         <v>0.89268801314908142</v>
       </c>
       <c r="G4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.1558463629745672</v>
       </c>
       <c r="H4">
@@ -1833,12 +1833,12 @@
         <v>0.53680746580813454</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
-        <v>6.6498340340774664</v>
+        <f t="shared" ref="I3:I30" si="3">$B$33*$K$1*$N$1*H4</f>
+        <v>47.498814529124758</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J30" si="4">I4*0.224809</f>
-        <v>1.4949425393669211</v>
+        <v>10.678160995478008</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1856,15 +1856,15 @@
         <v>0.39378885573</v>
       </c>
       <c r="E5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>97.982543082738601</v>
       </c>
       <c r="F5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.97085396720958839</v>
       </c>
       <c r="G5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.1704650514848547</v>
       </c>
       <c r="H5">
@@ -1872,12 +1872,12 @@
         <v>0.5380822573916032</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
-        <v>6.6656258272212963</v>
+        <f t="shared" si="3"/>
+        <v>47.611613051580683</v>
       </c>
       <c r="J5">
         <f t="shared" si="4"/>
-        <v>1.4984926765917925</v>
+        <v>10.703519118512801</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>10</v>
@@ -1902,15 +1902,15 @@
         <v>0.39987793059999999</v>
       </c>
       <c r="E6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>99.497626691891995</v>
       </c>
       <c r="F6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.86787081994040238</v>
       </c>
       <c r="G6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.7628898320365449</v>
       </c>
       <c r="H6">
@@ -1918,19 +1918,19 @@
         <v>0.58974339809886145</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
-        <v>7.3055908679407144</v>
+        <f t="shared" si="3"/>
+        <v>52.182791913862239</v>
       </c>
       <c r="J6">
         <f t="shared" si="4"/>
-        <v>1.6423625774308841</v>
+        <v>11.731161267363456</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="N6" s="4">
         <f>MAX(J:J)</f>
-        <v>2.4040556385832712</v>
+        <v>17.171825989880507</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1948,15 +1948,15 @@
         <v>0.39673389847000001</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>98.715328617305403</v>
       </c>
       <c r="F7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.79565681544638667</v>
       </c>
       <c r="G7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.791636431694009</v>
       </c>
       <c r="H7">
@@ -1964,12 +1964,12 @@
         <v>0.67945305336940187</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
-        <v>8.4168912070768638</v>
+        <f t="shared" si="3"/>
+        <v>60.120651479120447</v>
       </c>
       <c r="J7">
         <f t="shared" si="4"/>
-        <v>1.8921928953717428</v>
+        <v>13.515663538369589</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1987,15 +1987,15 @@
         <v>0.40088879662999999</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>99.749150377476596</v>
       </c>
       <c r="F8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.5691346651168413</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.9887171252212044</v>
       </c>
       <c r="H8">
@@ -2003,12 +2003,12 @@
         <v>0.69663905532818415</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
-        <v>8.6297870179858727</v>
+        <f t="shared" si="3"/>
+        <v>61.64133584275622</v>
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
-        <v>1.9400537897263861</v>
+        <v>13.857527069474184</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -2026,15 +2026,15 @@
         <v>0.38554273603</v>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>95.930743578984604</v>
       </c>
       <c r="F9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.78304186475128101</v>
       </c>
       <c r="G9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.9652372662225215</v>
       </c>
       <c r="H9">
@@ -2042,12 +2042,12 @@
         <v>0.69459154425278991</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
-        <v>8.6044229727712445</v>
+        <f t="shared" si="3"/>
+        <v>61.460164091223163</v>
       </c>
       <c r="J9">
         <f t="shared" si="4"/>
-        <v>1.9343517240857309</v>
+        <v>13.816798029183788</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -2065,15 +2065,15 @@
         <v>0.39807110707999999</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>99.048052863645594</v>
       </c>
       <c r="F10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.4853271607512408</v>
       </c>
       <c r="G10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.5279517716193984</v>
       </c>
       <c r="H10">
@@ -2081,12 +2081,12 @@
         <v>0.56925612512321389</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
-        <v>7.0517997532925616</v>
+        <f t="shared" si="3"/>
+        <v>50.369998237804005</v>
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
-        <v>1.5853080507379476</v>
+        <v>11.323628933842482</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -2104,15 +2104,15 @@
         <v>0.39338291739999998</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>97.881537507467996</v>
       </c>
       <c r="F11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.4123275187832309</v>
       </c>
       <c r="G11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.347904125449138</v>
       </c>
       <c r="H11">
@@ -2120,12 +2120,12 @@
         <v>0.55355545376684256</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
-        <v>6.8573038392197487</v>
+        <f t="shared" si="3"/>
+        <v>48.980741708712486</v>
       </c>
       <c r="J11">
         <f t="shared" si="4"/>
-        <v>1.5415836187911525</v>
+        <v>11.011311562793946</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -2143,15 +2143,15 @@
         <v>0.3821439975</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>95.085069457949999</v>
       </c>
       <c r="F12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.4655718595007823</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.6802170411166601</v>
       </c>
       <c r="H12">
@@ -2159,12 +2159,12 @@
         <v>0.58253409351778596</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
-        <v>7.2162838407124434</v>
+        <f t="shared" si="3"/>
+        <v>51.544884576517447</v>
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
-        <v>1.6222855539467238</v>
+        <v>11.587753956762311</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -2182,15 +2182,15 @@
         <v>0.38782713405000002</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>96.499147494321008</v>
       </c>
       <c r="F13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.4800663732800967</v>
       </c>
       <c r="G13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.043840770404163</v>
       </c>
       <c r="H13">
@@ -2198,12 +2198,12 @@
         <v>0.61424312605644193</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
-        <v>7.6090872519798074</v>
+        <f t="shared" si="3"/>
+        <v>54.350623228427196</v>
       </c>
       <c r="J13">
         <f t="shared" si="4"/>
-        <v>1.7105912960303287</v>
+        <v>12.218509257359489</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -2221,15 +2221,15 @@
         <v>0.40614211613000001</v>
       </c>
       <c r="E14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>101.05628133546659</v>
       </c>
       <c r="F14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.4819707982311374</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.7444900289976921</v>
       </c>
       <c r="H14">
@@ -2237,12 +2237,12 @@
         <v>0.58813888247935808</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
-        <v>7.2857145374975092</v>
+        <f t="shared" si="3"/>
+        <v>52.040818124982202</v>
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
-        <v>1.6378941994602776</v>
+        <v>11.699244281859125</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -2260,15 +2260,15 @@
         <v>0.39203774923000001</v>
       </c>
       <c r="E15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>97.546832763408602</v>
       </c>
       <c r="F15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.5214963178877394</v>
       </c>
       <c r="G15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.2304678944242875</v>
       </c>
       <c r="H15">
@@ -2276,12 +2276,12 @@
         <v>0.63051754675980309</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
-        <v>7.8106906266929057</v>
+        <f t="shared" si="3"/>
+        <v>55.790647333520752</v>
       </c>
       <c r="J15">
         <f t="shared" si="4"/>
-        <v>1.7559135490962055</v>
+        <v>12.542239636401467</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -2299,15 +2299,15 @@
         <v>0.39428234938000001</v>
       </c>
       <c r="E16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>98.105334172731602</v>
       </c>
       <c r="F16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.4469005390604268</v>
       </c>
       <c r="G16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.1677819101351954</v>
       </c>
       <c r="H16">
@@ -2315,12 +2315,12 @@
         <v>0.71225401836288704</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
-        <v>8.8232211992201215</v>
+        <f t="shared" si="3"/>
+        <v>63.023008565857999</v>
       </c>
       <c r="J16">
         <f t="shared" si="4"/>
-        <v>1.9835395345754763</v>
+        <v>14.168139532681971</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -2338,15 +2338,15 @@
         <v>0.3912497513</v>
       </c>
       <c r="E17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>97.350763118465991</v>
       </c>
       <c r="F17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.3294527124122604</v>
       </c>
       <c r="G17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.1502128618146568</v>
       </c>
       <c r="H17">
@@ -2354,12 +2354,12 @@
         <v>0.71072194693850343</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
-        <v>8.8042422889973171</v>
+        <f t="shared" si="3"/>
+        <v>62.887444921409397</v>
       </c>
       <c r="J17">
         <f t="shared" si="4"/>
-        <v>1.979272904747198</v>
+        <v>14.137663605337126</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -2377,15 +2377,15 @@
         <v>0.39697268572</v>
       </c>
       <c r="E18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>98.77474366085039</v>
       </c>
       <c r="F18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.2018832130173132</v>
       </c>
       <c r="G18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.1078290176989611</v>
       </c>
       <c r="H18">
@@ -2393,12 +2393,12 @@
         <v>0.7070259541197419</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
-        <v>8.7584572722056713</v>
+        <f t="shared" si="3"/>
+        <v>62.560409087183359</v>
       </c>
       <c r="J18">
         <f t="shared" si="4"/>
-        <v>1.9689800209072847</v>
+        <v>14.064143006480604</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -2416,15 +2416,15 @@
         <v>0.39152037685000002</v>
       </c>
       <c r="E19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>97.418100167817002</v>
       </c>
       <c r="F19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.8173136804174899</v>
       </c>
       <c r="G19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.1322492345727788</v>
       </c>
       <c r="H19">
@@ -2432,12 +2432,12 @@
         <v>0.79635833639786757</v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
-        <v>9.86508404969282</v>
+        <f t="shared" si="3"/>
+        <v>70.464886069234424</v>
       </c>
       <c r="J19">
         <f t="shared" si="4"/>
-        <v>2.2177596801273931</v>
+        <v>15.841140572338523</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -2455,15 +2455,15 @@
         <v>0.39492707495000001</v>
       </c>
       <c r="E20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>98.265754789059002</v>
       </c>
       <c r="F20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.2171058066840952</v>
       </c>
       <c r="G20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.2668302282159782</v>
       </c>
       <c r="H20">
@@ -2471,12 +2471,12 @@
         <v>0.80809418519651066</v>
       </c>
       <c r="I20">
-        <f t="shared" si="1"/>
-        <v>10.010464752702449</v>
+        <f t="shared" si="3"/>
+        <v>71.503319662160337</v>
       </c>
       <c r="J20">
         <f t="shared" si="4"/>
-        <v>2.2504425705902849</v>
+        <v>16.074589789930602</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -2494,15 +2494,15 @@
         <v>0.39391620893000001</v>
       </c>
       <c r="E21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>98.014231105962594</v>
       </c>
       <c r="F21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.1193834469750179</v>
       </c>
       <c r="G21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.4051588574704681</v>
       </c>
       <c r="H21">
@@ -2510,12 +2510,12 @@
         <v>0.82015683857354105</v>
       </c>
       <c r="I21">
-        <f t="shared" si="1"/>
-        <v>10.159893827514397</v>
+        <f t="shared" si="3"/>
+        <v>72.570670196531395</v>
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
-        <v>2.2840355714696843</v>
+        <v>16.314539796212028</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -2533,15 +2533,15 @@
         <v>0.39015132995000001</v>
       </c>
       <c r="E22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>97.077453918158994</v>
       </c>
       <c r="F22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.3026657031245272</v>
       </c>
       <c r="G22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.5219862493253142</v>
       </c>
       <c r="H22">
@@ -2549,12 +2549,12 @@
         <v>0.83034452235586831</v>
       </c>
       <c r="I22">
-        <f t="shared" si="1"/>
-        <v>10.286096256987225</v>
+        <f t="shared" si="3"/>
+        <v>73.472116121337322</v>
       </c>
       <c r="J22">
         <f t="shared" si="4"/>
-        <v>2.3124070134370411</v>
+        <v>16.517192953121722</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -2572,15 +2572,15 @@
         <v>0.38904494902999998</v>
       </c>
       <c r="E23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>96.802164217644588</v>
       </c>
       <c r="F23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.0179715746093381</v>
       </c>
       <c r="G23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.8993752398191948</v>
       </c>
       <c r="H23">
@@ -2588,12 +2588,12 @@
         <v>0.86325392516835475</v>
       </c>
       <c r="I23">
-        <f t="shared" si="1"/>
-        <v>10.693769549187405</v>
+        <f t="shared" si="3"/>
+        <v>76.384068208481452</v>
       </c>
       <c r="J23">
         <f t="shared" si="4"/>
-        <v>2.4040556385832712</v>
+        <v>17.171825989880507</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -2611,15 +2611,15 @@
         <v>0.38793856809999999</v>
       </c>
       <c r="E24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>96.526874514641989</v>
       </c>
       <c r="F24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.0288959131109765</v>
       </c>
       <c r="G24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.8320115709307245</v>
       </c>
       <c r="H24">
@@ -2627,12 +2627,12 @@
         <v>0.85737961995484968</v>
       </c>
       <c r="I24">
-        <f t="shared" si="1"/>
-        <v>10.621000153783193</v>
+        <f t="shared" si="3"/>
+        <v>75.864286812737092</v>
       </c>
       <c r="J24">
         <f t="shared" si="4"/>
-        <v>2.3876964235718461</v>
+        <v>17.054974454084615</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -2650,15 +2650,15 @@
         <v>0.40248867119999998</v>
       </c>
       <c r="E25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100.14723116798399</v>
       </c>
       <c r="F25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.9608587153224835</v>
       </c>
       <c r="G25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.4076362803563836</v>
       </c>
       <c r="H25">
@@ -2666,12 +2666,12 @@
         <v>0.82037287695765704</v>
       </c>
       <c r="I25">
-        <f t="shared" si="1"/>
-        <v>10.16257005594054</v>
+        <f t="shared" si="3"/>
+        <v>72.589786113860995</v>
       </c>
       <c r="J25">
         <f t="shared" si="4"/>
-        <v>2.2846372117059368</v>
+        <v>16.318837226470976</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -2689,15 +2689,15 @@
         <v>0.39508626645</v>
       </c>
       <c r="E26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>98.305364818089004</v>
       </c>
       <c r="F26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.7067767242617182</v>
       </c>
       <c r="G26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.001398731093051</v>
       </c>
       <c r="H26">
@@ -2705,12 +2705,12 @@
         <v>0.78494779704536655</v>
       </c>
       <c r="I26">
-        <f t="shared" si="1"/>
-        <v>9.7237331971684213</v>
+        <f t="shared" si="3"/>
+        <v>69.455237122631573</v>
       </c>
       <c r="J26">
         <f t="shared" si="4"/>
-        <v>2.1859827363222357</v>
+        <v>15.614162402301682</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -2728,15 +2728,15 @@
         <v>0.39622448568000002</v>
       </c>
       <c r="E27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>98.588576526897597</v>
       </c>
       <c r="F27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.2175355432799364</v>
       </c>
       <c r="G27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.4864657495693656</v>
       </c>
       <c r="H27">
@@ -2744,12 +2744,12 @@
         <v>0.82724703285825585</v>
       </c>
       <c r="I27">
-        <f t="shared" si="1"/>
-        <v>10.247725346757033</v>
+        <f t="shared" si="3"/>
+        <v>73.198038191121654</v>
       </c>
       <c r="J27">
         <f t="shared" si="4"/>
-        <v>2.3037808874791019</v>
+        <v>16.455577767707869</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -2767,15 +2767,15 @@
         <v>0.39637571760000001</v>
       </c>
       <c r="E28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>98.626206053231996</v>
       </c>
       <c r="F28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.7006081007072575</v>
       </c>
       <c r="G28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.2189597441814808</v>
       </c>
       <c r="H28">
@@ -2783,12 +2783,12 @@
         <v>0.80391974163402535</v>
       </c>
       <c r="I28">
-        <f t="shared" si="1"/>
-        <v>9.9587528100725891</v>
+        <f t="shared" si="3"/>
+        <v>71.133948643375632</v>
       </c>
       <c r="J28">
         <f t="shared" si="4"/>
-        <v>2.2388172604796086</v>
+        <v>15.991551860568633</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -2806,15 +2806,15 @@
         <v>0.38709485314999997</v>
       </c>
       <c r="E29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>96.316941360782991</v>
       </c>
       <c r="F29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.707708672106647</v>
       </c>
       <c r="G29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.429546805522028</v>
       </c>
       <c r="H29">
@@ -2822,12 +2822,12 @@
         <v>0.82228353761992412</v>
       </c>
       <c r="I29">
-        <f t="shared" si="1"/>
-        <v>10.186238833125651</v>
+        <f t="shared" si="3"/>
+        <v>72.758848808040355</v>
       </c>
       <c r="J29">
         <f t="shared" si="4"/>
-        <v>2.2899581658361448</v>
+        <v>16.356844041686745</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -2845,15 +2845,15 @@
         <v>0.39141690236999999</v>
       </c>
       <c r="E30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>97.392353647703388</v>
       </c>
       <c r="F30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.8558212213512251</v>
       </c>
       <c r="G30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.222577401556018</v>
       </c>
       <c r="H30">
@@ -2861,12 +2861,12 @@
         <v>0.80423521173722157</v>
       </c>
       <c r="I30">
-        <f t="shared" si="1"/>
-        <v>9.9626607732858243</v>
+        <f t="shared" si="3"/>
+        <v>71.161862666327309</v>
       </c>
       <c r="J30">
         <f t="shared" si="4"/>
-        <v>2.2396958057816128</v>
+        <v>15.997827184154376</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -2890,7 +2890,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2935,7 +2935,7 @@
         <v>27</v>
       </c>
       <c r="O1">
-        <v>0.35560000000000003</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -3008,11 +3008,11 @@
       </c>
       <c r="J3">
         <f>$C$29*$L$1*$O$1*I3</f>
-        <v>6.9843677688643986</v>
+        <v>49.888341206174275</v>
       </c>
       <c r="K3">
         <f>J3*0.224809</f>
-        <v>1.5701487337506366</v>
+        <v>11.215348098218833</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -3050,11 +3050,11 @@
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J25" si="4">$C$29*$L$1*$O$1*I4</f>
-        <v>8.2815542589598383</v>
+        <v>59.153958992570274</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K25" si="5">J4*0.224809</f>
-        <v>1.8617679314025024</v>
+        <v>13.298342367160732</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -3092,11 +3092,11 @@
       </c>
       <c r="J5">
         <f t="shared" si="4"/>
-        <v>8.2491049329881978</v>
+        <v>58.922178092772853</v>
       </c>
       <c r="K5">
         <f t="shared" si="5"/>
-        <v>1.8544730308801438</v>
+        <v>13.246235934858174</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>10</v>
@@ -3141,18 +3141,18 @@
       </c>
       <c r="J6">
         <f t="shared" si="4"/>
-        <v>9.6607832011812604</v>
+        <v>69.005594294151862</v>
       </c>
       <c r="K6">
         <f t="shared" si="5"/>
-        <v>2.1718310106743579</v>
+        <v>15.513078647673987</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="O6" s="4">
         <f>MAX(K:K)</f>
-        <v>3.4243031329541149</v>
+        <v>24.459308092529394</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -3190,11 +3190,11 @@
       </c>
       <c r="J7">
         <f t="shared" si="4"/>
-        <v>10.631508503381969</v>
+        <v>75.939346452728358</v>
       </c>
       <c r="K7">
         <f t="shared" si="5"/>
-        <v>2.3900587951367971</v>
+        <v>17.071848536691409</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -3232,11 +3232,11 @@
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
-        <v>11.543160253005526</v>
+        <v>82.451144664325184</v>
       </c>
       <c r="K8">
         <f t="shared" si="5"/>
-        <v>2.5950063133179193</v>
+        <v>18.535759380842283</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -3274,11 +3274,11 @@
       </c>
       <c r="J9">
         <f t="shared" si="4"/>
-        <v>11.035871997511927</v>
+        <v>78.827657125085196</v>
       </c>
       <c r="K9">
         <f t="shared" si="5"/>
-        <v>2.4809633478886588</v>
+        <v>17.721166770633278</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -3316,11 +3316,11 @@
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
-        <v>11.506711311207109</v>
+        <v>82.19079508005079</v>
       </c>
       <c r="K10">
         <f t="shared" si="5"/>
-        <v>2.5868122631611592</v>
+        <v>18.47723045115114</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -3358,11 +3358,11 @@
       </c>
       <c r="J11">
         <f t="shared" si="4"/>
-        <v>11.990523931469953</v>
+        <v>85.646599510499669</v>
       </c>
       <c r="K11">
         <f t="shared" si="5"/>
-        <v>2.6955776945098289</v>
+        <v>19.254126389355921</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -3400,11 +3400,11 @@
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
-        <v>10.315791115764871</v>
+        <v>73.684222255463368</v>
       </c>
       <c r="K12">
         <f t="shared" si="5"/>
-        <v>2.319082684943985</v>
+        <v>16.564876321028464</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -3442,11 +3442,11 @@
       </c>
       <c r="J13">
         <f t="shared" si="4"/>
-        <v>11.477104672416282</v>
+        <v>81.979319088687731</v>
       </c>
       <c r="K13">
         <f t="shared" si="5"/>
-        <v>2.580156424301232</v>
+        <v>18.4296887450088</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -3484,11 +3484,11 @@
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
-        <v>11.553841202376042</v>
+        <v>82.527437159828878</v>
       </c>
       <c r="K14">
         <f t="shared" si="5"/>
-        <v>2.5974074868649555</v>
+        <v>18.552910620463972</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -3526,11 +3526,11 @@
       </c>
       <c r="J15">
         <f t="shared" si="4"/>
-        <v>11.875750379915745</v>
+        <v>84.826788427969618</v>
       </c>
       <c r="K15">
         <f t="shared" si="5"/>
-        <v>2.6697755671584789</v>
+        <v>19.069825479703422</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -3568,11 +3568,11 @@
       </c>
       <c r="J16">
         <f t="shared" si="4"/>
-        <v>12.986087569286585</v>
+        <v>92.757768352047037</v>
       </c>
       <c r="K16">
         <f t="shared" si="5"/>
-        <v>2.919389360363748</v>
+        <v>20.852781145455342</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -3610,11 +3610,11 @@
       </c>
       <c r="J17">
         <f t="shared" si="4"/>
-        <v>12.961784004104597</v>
+        <v>92.584171457889994</v>
       </c>
       <c r="K17">
         <f t="shared" si="5"/>
-        <v>2.9139257001787504</v>
+        <v>20.813755001276792</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -3652,11 +3652,11 @@
       </c>
       <c r="J18">
         <f t="shared" si="4"/>
-        <v>13.90634526541519</v>
+        <v>99.33103761010851</v>
       </c>
       <c r="K18">
         <f t="shared" si="5"/>
-        <v>3.1262715727727235</v>
+        <v>22.330511234090885</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -3694,11 +3694,11 @@
       </c>
       <c r="J19">
         <f t="shared" si="4"/>
-        <v>14.354826228944825</v>
+        <v>102.53447306389161</v>
       </c>
       <c r="K19">
         <f t="shared" si="5"/>
-        <v>3.2270941297028575</v>
+        <v>23.05067235502041</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -3736,11 +3736,11 @@
       </c>
       <c r="J20">
         <f t="shared" si="4"/>
-        <v>15.232055357899883</v>
+        <v>108.8003954135706</v>
       </c>
       <c r="K20">
         <f t="shared" si="5"/>
-        <v>3.4243031329541149</v>
+        <v>24.459308092529394</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -3778,11 +3778,11 @@
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
-        <v>14.953979193284258</v>
+        <v>106.81413709488757</v>
       </c>
       <c r="K21">
         <f t="shared" si="5"/>
-        <v>3.3617891084630411</v>
+        <v>24.012779346164582</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -3820,11 +3820,11 @@
       </c>
       <c r="J22">
         <f t="shared" si="4"/>
-        <v>14.594550173261036</v>
+        <v>104.24678695186454</v>
       </c>
       <c r="K22">
         <f t="shared" si="5"/>
-        <v>3.2809862299006403</v>
+        <v>23.435615927861715</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -3862,11 +3862,11 @@
       </c>
       <c r="J23">
         <f t="shared" si="4"/>
-        <v>14.865502489850634</v>
+        <v>106.18216064179025</v>
       </c>
       <c r="K23">
         <f t="shared" si="5"/>
-        <v>3.3418987492408312</v>
+        <v>23.870705351720225</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -3904,11 +3904,11 @@
       </c>
       <c r="J24">
         <f t="shared" si="4"/>
-        <v>14.690202095577821</v>
+        <v>104.930014968413</v>
       </c>
       <c r="K24">
         <f t="shared" si="5"/>
-        <v>3.3024896429047543</v>
+        <v>23.58921173503396</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -3946,11 +3946,11 @@
       </c>
       <c r="J25">
         <f t="shared" si="4"/>
-        <v>13.808535405989621</v>
+        <v>98.632395757068721</v>
       </c>
       <c r="K25">
         <f t="shared" si="5"/>
-        <v>3.1042830360851208</v>
+        <v>22.173450257750861</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -3973,7 +3973,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4018,7 +4018,7 @@
         <v>27</v>
       </c>
       <c r="O1">
-        <v>0.35560000000000003</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -4091,11 +4091,11 @@
       </c>
       <c r="J3">
         <f>$C$35*$L$1*$O$1*I3</f>
-        <v>8.7921073745020362</v>
+        <v>62.800766960728829</v>
       </c>
       <c r="K3">
         <f>J3*0.224809</f>
-        <v>1.9765448667544283</v>
+        <v>14.118177619674489</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -4133,11 +4133,11 @@
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J32" si="4">$C$35*$L$1*$O$1*I4</f>
-        <v>9.1232878374789159</v>
+        <v>65.166341696277968</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K32" si="5">J4*0.224809</f>
-        <v>2.0509972154557978</v>
+        <v>14.649980110398554</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -4175,11 +4175,11 @@
       </c>
       <c r="J5">
         <f t="shared" si="4"/>
-        <v>10.317416694686969</v>
+        <v>73.69583353347835</v>
       </c>
       <c r="K5">
         <f t="shared" si="5"/>
-        <v>2.3194481297158829</v>
+        <v>16.567486640827735</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>10</v>
@@ -4224,18 +4224,18 @@
       </c>
       <c r="J6">
         <f t="shared" si="4"/>
-        <v>11.799718653331851</v>
+        <v>84.283704666656078</v>
       </c>
       <c r="K6">
         <f t="shared" si="5"/>
-        <v>2.6526829507368803</v>
+        <v>18.947735362406288</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="O6" s="4">
         <f>MAX(K:K)</f>
-        <v>4.8198670694384687</v>
+        <v>34.427621924560498</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -4273,11 +4273,11 @@
       </c>
       <c r="J7">
         <f t="shared" si="4"/>
-        <v>13.853178591523042</v>
+        <v>98.951275653736019</v>
       </c>
       <c r="K7">
         <f t="shared" si="5"/>
-        <v>3.1143192259817036</v>
+        <v>22.245137328440741</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -4315,11 +4315,11 @@
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
-        <v>12.690696689940388</v>
+        <v>90.647833499574205</v>
       </c>
       <c r="K8">
         <f t="shared" si="5"/>
-        <v>2.8529828321688089</v>
+        <v>20.378448801205778</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -4357,11 +4357,11 @@
       </c>
       <c r="J9">
         <f t="shared" si="4"/>
-        <v>13.788696681299376</v>
+        <v>98.490690580709824</v>
       </c>
       <c r="K9">
         <f t="shared" si="5"/>
-        <v>3.0998231122262316</v>
+        <v>22.141593658758797</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -4399,11 +4399,11 @@
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
-        <v>14.589246479399863</v>
+        <v>104.20890342428474</v>
       </c>
       <c r="K10">
         <f t="shared" si="5"/>
-        <v>3.279793911787404</v>
+        <v>23.427099369910028</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -4441,11 +4441,11 @@
       </c>
       <c r="J11">
         <f t="shared" si="4"/>
-        <v>15.122405623666253</v>
+        <v>108.01718302618752</v>
       </c>
       <c r="K11">
         <f t="shared" si="5"/>
-        <v>3.3996528858507871</v>
+        <v>24.283234898934193</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -4483,11 +4483,11 @@
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
-        <v>14.306561074330626</v>
+        <v>102.18972195950447</v>
       </c>
       <c r="K12">
         <f t="shared" si="5"/>
-        <v>3.2162436885591936</v>
+        <v>22.973169203994242</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -4525,11 +4525,11 @@
       </c>
       <c r="J13">
         <f t="shared" si="4"/>
-        <v>14.685736566648279</v>
+        <v>104.89811833320199</v>
       </c>
       <c r="K13">
         <f t="shared" si="5"/>
-        <v>3.301485751811633</v>
+        <v>23.582041084368807</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -4567,11 +4567,11 @@
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
-        <v>16.031487920716806</v>
+        <v>114.51062800512004</v>
       </c>
       <c r="K14">
         <f t="shared" si="5"/>
-        <v>3.6040227679684245</v>
+        <v>25.743019771203031</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -4609,11 +4609,11 @@
       </c>
       <c r="J15">
         <f t="shared" si="4"/>
-        <v>16.159133727682011</v>
+        <v>115.42238376915722</v>
       </c>
       <c r="K15">
         <f t="shared" si="5"/>
-        <v>3.6327186941864653</v>
+        <v>25.947990672760469</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -4651,11 +4651,11 @@
       </c>
       <c r="J16">
         <f t="shared" si="4"/>
-        <v>16.376576427491578</v>
+        <v>116.97554591065413</v>
       </c>
       <c r="K16">
         <f t="shared" si="5"/>
-        <v>3.6816017700879544</v>
+        <v>26.297155500628246</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -4693,11 +4693,11 @@
       </c>
       <c r="J17">
         <f t="shared" si="4"/>
-        <v>17.449286818956271</v>
+        <v>124.63776299254479</v>
       </c>
       <c r="K17">
         <f t="shared" si="5"/>
-        <v>3.9227567204827403</v>
+        <v>28.019690860591005</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -4735,11 +4735,11 @@
       </c>
       <c r="J18">
         <f t="shared" si="4"/>
-        <v>17.299491838561671</v>
+        <v>123.56779884686907</v>
       </c>
       <c r="K18">
         <f t="shared" si="5"/>
-        <v>3.8890814607352109</v>
+        <v>27.779153290965787</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -4777,11 +4777,11 @@
       </c>
       <c r="J19">
         <f t="shared" si="4"/>
-        <v>18.261815227771557</v>
+        <v>130.44153734122543</v>
       </c>
       <c r="K19">
         <f t="shared" si="5"/>
-        <v>4.1054204195400956</v>
+        <v>29.324431568143549</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -4819,11 +4819,11 @@
       </c>
       <c r="J20">
         <f t="shared" si="4"/>
-        <v>18.830534743071432</v>
+        <v>134.50381959336738</v>
       </c>
       <c r="K20">
         <f t="shared" si="5"/>
-        <v>4.2332736850551456</v>
+        <v>30.23766917896533</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -4861,11 +4861,11 @@
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
-        <v>19.416001655373581</v>
+        <v>138.68572610981127</v>
       </c>
       <c r="K21">
         <f t="shared" si="5"/>
-        <v>4.3648919161428799</v>
+        <v>31.177799401020565</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="J22">
         <f t="shared" si="4"/>
-        <v>21.09055887114619</v>
+        <v>150.64684907961563</v>
       </c>
       <c r="K22">
         <f t="shared" si="5"/>
-        <v>4.7413474492635039</v>
+        <v>33.866767494739314</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -4945,11 +4945,11 @@
       </c>
       <c r="J23">
         <f t="shared" si="4"/>
-        <v>20.588846193866644</v>
+        <v>147.06318709904747</v>
       </c>
       <c r="K23">
         <f t="shared" si="5"/>
-        <v>4.6285579239969667</v>
+        <v>33.061128028549767</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -4987,11 +4987,11 @@
       </c>
       <c r="J24">
         <f t="shared" si="4"/>
-        <v>20.802444376299146</v>
+        <v>148.58888840213675</v>
       </c>
       <c r="K24">
         <f t="shared" si="5"/>
-        <v>4.676576717791435</v>
+        <v>33.404119412795964</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -5029,11 +5029,11 @@
       </c>
       <c r="J25">
         <f t="shared" si="4"/>
-        <v>21.439831454427843</v>
+        <v>153.14165324591318</v>
       </c>
       <c r="K25">
         <f t="shared" si="5"/>
-        <v>4.8198670694384687</v>
+        <v>34.427621924560498</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -5071,11 +5071,11 @@
       </c>
       <c r="J26">
         <f t="shared" si="4"/>
-        <v>21.402548602442369</v>
+        <v>152.87534716030265</v>
       </c>
       <c r="K26">
         <f t="shared" si="5"/>
-        <v>4.8114855487664672</v>
+        <v>34.367753919760482</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -5113,11 +5113,11 @@
       </c>
       <c r="J27">
         <f t="shared" si="4"/>
-        <v>20.304180205126531</v>
+        <v>145.02985860804665</v>
       </c>
       <c r="K27">
         <f t="shared" si="5"/>
-        <v>4.564562447734291</v>
+        <v>32.604017483816364</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -5155,11 +5155,11 @@
       </c>
       <c r="J28">
         <f t="shared" si="4"/>
-        <v>20.206297520157968</v>
+        <v>144.33069657255692</v>
       </c>
       <c r="K28">
         <f t="shared" si="5"/>
-        <v>4.5425575392091924</v>
+        <v>32.446839565779946</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -5197,11 +5197,11 @@
       </c>
       <c r="J29">
         <f t="shared" si="4"/>
-        <v>20.293457526295676</v>
+        <v>144.95326804496912</v>
       </c>
       <c r="K29">
         <f t="shared" si="5"/>
-        <v>4.5621518930290046</v>
+        <v>32.586799235921461</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -5239,11 +5239,11 @@
       </c>
       <c r="J30">
         <f t="shared" si="4"/>
-        <v>20.445000946989989</v>
+        <v>146.0357210499285</v>
       </c>
       <c r="K30">
         <f t="shared" si="5"/>
-        <v>4.5962202178918723</v>
+        <v>32.830144413513374</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -5281,11 +5281,11 @@
       </c>
       <c r="J31">
         <f t="shared" si="4"/>
-        <v>21.131484204218548</v>
+        <v>150.93917288727536</v>
       </c>
       <c r="K31">
         <f t="shared" si="5"/>
-        <v>4.7505478324661681</v>
+        <v>33.932484517615485</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -5323,11 +5323,11 @@
       </c>
       <c r="J32">
         <f t="shared" si="4"/>
-        <v>20.604421667954323</v>
+        <v>147.17444048538803</v>
       </c>
       <c r="K32">
         <f t="shared" si="5"/>
-        <v>4.632059430751144</v>
+        <v>33.086138791079598</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">

--- a/Wind_Tunnel_Testing/WIND TUNNEL TESTING.xlsx
+++ b/Wind_Tunnel_Testing/WIND TUNNEL TESTING.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/G/Programs/GitHub/Sizing_Algorithm/Wind_Tunnel_Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509A4896-A33F-2741-9A04-460C7AB02353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92F29A6-BA6C-154B-8CA4-081FC5A3A783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33680" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{D897026C-7703-4763-9101-B209D1D946C8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" activeTab="2" xr2:uid="{D897026C-7703-4763-9101-B209D1D946C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Scaled Stall Speed" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="38">
   <si>
     <t>CL</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>AOA rel(deg)</t>
+  </si>
+  <si>
+    <t>q A/C (assume sea level)</t>
   </si>
 </sst>
 </file>
@@ -1681,10 +1684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A213108A-79CB-4518-916B-E4995755C4B6}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1794,12 +1797,12 @@
         <v>0.4723914001721809</v>
       </c>
       <c r="I3">
-        <f>$B$33*$K$1*$N$1*H3</f>
-        <v>41.799030250357511</v>
+        <f>$B$34*$K$1*$N$1*H3</f>
+        <v>5.4628086465078525</v>
       </c>
       <c r="J3">
         <f>I3*0.224809</f>
-        <v>9.3967981915526213</v>
+        <v>1.2280885490127837</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1833,12 +1836,12 @@
         <v>0.53680746580813454</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I3:I30" si="3">$B$33*$K$1*$N$1*H4</f>
-        <v>47.498814529124758</v>
+        <f t="shared" ref="I4:I30" si="3">$B$34*$K$1*$N$1*H4</f>
+        <v>6.2077261877709757</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J30" si="4">I4*0.224809</f>
-        <v>10.678160995478008</v>
+        <v>1.3955527165466053</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1873,11 +1876,11 @@
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>47.611613051580683</v>
+        <v>6.2224680786735824</v>
       </c>
       <c r="J5">
         <f t="shared" si="4"/>
-        <v>10.703519118512801</v>
+        <v>1.3988668262985295</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>10</v>
@@ -1919,18 +1922,18 @@
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>52.182791913862239</v>
+        <v>6.8198856566422021</v>
       </c>
       <c r="J6">
         <f t="shared" si="4"/>
-        <v>11.731161267363456</v>
+        <v>1.5331716745840769</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="N6" s="4">
         <f>MAX(J:J)</f>
-        <v>17.171825989880507</v>
+        <v>2.2442243021426354</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1965,11 +1968,11 @@
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>60.120651479120447</v>
+        <v>7.8573022571741413</v>
       </c>
       <c r="J7">
         <f t="shared" si="4"/>
-        <v>13.515663538369589</v>
+        <v>1.7663922631330615</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -2004,11 +2007,11 @@
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>61.64133584275622</v>
+        <v>8.0560438940140955</v>
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
-        <v>13.857527069474184</v>
+        <v>1.8110711717694148</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -2043,11 +2046,11 @@
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>61.460164091223163</v>
+        <v>8.0323661530509707</v>
       </c>
       <c r="J9">
         <f t="shared" si="4"/>
-        <v>13.816798029183788</v>
+        <v>1.8057482025012357</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -2082,11 +2085,11 @@
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>50.369998237804005</v>
+        <v>6.5829676011612142</v>
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
-        <v>11.323628933842482</v>
+        <v>1.4799103634494515</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -2121,11 +2124,11 @@
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>48.980741708712486</v>
+        <v>6.4014025616403814</v>
       </c>
       <c r="J11">
         <f t="shared" si="4"/>
-        <v>11.011311562793946</v>
+        <v>1.4390929084798125</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -2160,11 +2163,11 @@
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>51.544884576517447</v>
+        <v>6.7365161215777336</v>
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
-        <v>11.587753956762311</v>
+        <v>1.5144294527757687</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -2199,11 +2202,11 @@
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>54.350623228427196</v>
+        <v>7.1032043742881594</v>
       </c>
       <c r="J13">
         <f t="shared" si="4"/>
-        <v>12.218509257359489</v>
+        <v>1.5968642721793469</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -2238,11 +2241,11 @@
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>52.040818124982202</v>
+        <v>6.8013307849902516</v>
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
-        <v>11.699244281859125</v>
+        <v>1.5290003724428736</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -2277,11 +2280,11 @@
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>55.790647333520752</v>
+        <v>7.2914043417363885</v>
       </c>
       <c r="J15">
         <f t="shared" si="4"/>
-        <v>12.542239636401467</v>
+        <v>1.6391733186614159</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -2316,11 +2319,11 @@
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>63.023008565857999</v>
+        <v>8.2366177889871697</v>
       </c>
       <c r="J16">
         <f t="shared" si="4"/>
-        <v>14.168139532681971</v>
+        <v>1.8516658085244166</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -2355,11 +2358,11 @@
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>62.887444921409397</v>
+        <v>8.2189006734318486</v>
       </c>
       <c r="J17">
         <f t="shared" si="4"/>
-        <v>14.137663605337126</v>
+        <v>1.8476828414935405</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -2394,11 +2397,11 @@
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
-        <v>62.560409087183359</v>
+        <v>8.1761596296270671</v>
       </c>
       <c r="J18">
         <f t="shared" si="4"/>
-        <v>14.064143006480604</v>
+        <v>1.8380742701768313</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -2433,11 +2436,11 @@
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
-        <v>70.464886069234424</v>
+        <v>9.2092133857797354</v>
       </c>
       <c r="J19">
         <f t="shared" si="4"/>
-        <v>15.841140572338523</v>
+        <v>2.0703140520437566</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -2472,11 +2475,11 @@
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
-        <v>71.503319662160337</v>
+        <v>9.3449285920006133</v>
       </c>
       <c r="J20">
         <f t="shared" si="4"/>
-        <v>16.074589789930602</v>
+        <v>2.1008240518390662</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -2511,11 +2514,11 @@
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
-        <v>72.570670196531395</v>
+        <v>9.4844230179022073</v>
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
-        <v>16.314539796212028</v>
+        <v>2.1321836542315773</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -2550,11 +2553,11 @@
       </c>
       <c r="I22">
         <f t="shared" si="3"/>
-        <v>73.472116121337322</v>
+        <v>9.6022349997327403</v>
       </c>
       <c r="J22">
         <f t="shared" si="4"/>
-        <v>16.517192953121722</v>
+        <v>2.1586688480549179</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -2589,11 +2592,11 @@
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
-        <v>76.384068208481452</v>
+        <v>9.9828045235850666</v>
       </c>
       <c r="J23">
         <f t="shared" si="4"/>
-        <v>17.171825989880507</v>
+        <v>2.2442243021426354</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -2628,11 +2631,11 @@
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
-        <v>75.864286812737092</v>
+        <v>9.914873131733172</v>
       </c>
       <c r="J24">
         <f t="shared" si="4"/>
-        <v>17.054974454084615</v>
+        <v>2.2289527138718026</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -2667,11 +2670,11 @@
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
-        <v>72.589786113860995</v>
+        <v>9.486921319844825</v>
       </c>
       <c r="J25">
         <f t="shared" si="4"/>
-        <v>16.318837226470976</v>
+        <v>2.1327452949929953</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -2706,11 +2709,11 @@
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
-        <v>69.455237122631573</v>
+        <v>9.0772601092945138</v>
       </c>
       <c r="J26">
         <f t="shared" si="4"/>
-        <v>15.614162402301682</v>
+        <v>2.0406497679103905</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -2745,11 +2748,11 @@
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
-        <v>73.198038191121654</v>
+        <v>9.5664151427161705</v>
       </c>
       <c r="J27">
         <f t="shared" si="4"/>
-        <v>16.455577767707869</v>
+        <v>2.1506162218188796</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -2784,11 +2787,11 @@
       </c>
       <c r="I28">
         <f t="shared" si="3"/>
-        <v>71.133948643375632</v>
+        <v>9.2966546683449494</v>
       </c>
       <c r="J28">
         <f t="shared" si="4"/>
-        <v>15.991551860568633</v>
+        <v>2.08997163933596</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -2823,11 +2826,11 @@
       </c>
       <c r="I29">
         <f t="shared" si="3"/>
-        <v>72.758848808040355</v>
+        <v>9.5090165010495866</v>
       </c>
       <c r="J29">
         <f t="shared" si="4"/>
-        <v>16.356844041686745</v>
+        <v>2.1377124905844567</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -2862,11 +2865,11 @@
       </c>
       <c r="I30">
         <f t="shared" si="3"/>
-        <v>71.161862666327309</v>
+        <v>9.3003028143671393</v>
       </c>
       <c r="J30">
         <f t="shared" si="4"/>
-        <v>15.997827184154376</v>
+        <v>2.0907917753950622</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -2876,6 +2879,15 @@
       <c r="B33">
         <f>AVERAGE(E3:E30)</f>
         <v>97.964506372246788</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <f>0.5*1.225*4.572^2</f>
+        <v>12.803200200000001</v>
       </c>
     </row>
   </sheetData>
@@ -2887,10 +2899,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E50342-A1ED-3641-9FD6-F5197EE56D46}">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="B30" sqref="B30:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3007,12 +3019,12 @@
         <v>0.56366431276522444</v>
       </c>
       <c r="J3">
-        <f>$C$29*$L$1*$O$1*I3</f>
-        <v>49.888341206174275</v>
+        <f>$C$30*$L$1*$O$1*I3</f>
+        <v>8.37239807714686</v>
       </c>
       <c r="K3">
         <f>J3*0.224809</f>
-        <v>11.215348098218833</v>
+        <v>1.8821904393253086</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -3049,12 +3061,12 @@
         <v>0.66835206055644125</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J25" si="4">$C$29*$L$1*$O$1*I4</f>
-        <v>59.153958992570274</v>
+        <f t="shared" ref="J4:J25" si="4">$C$30*$L$1*$O$1*I4</f>
+        <v>9.9273794347711295</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K25" si="5">J4*0.224809</f>
-        <v>13.298342367160732</v>
+        <v>2.2317642433514631</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -3092,11 +3104,11 @@
       </c>
       <c r="J5">
         <f t="shared" si="4"/>
-        <v>58.922178092772853</v>
+        <v>9.8884813292646037</v>
       </c>
       <c r="K5">
         <f t="shared" si="5"/>
-        <v>13.246235934858174</v>
+        <v>2.2230195991506463</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>10</v>
@@ -3141,18 +3153,18 @@
       </c>
       <c r="J6">
         <f t="shared" si="4"/>
-        <v>69.005594294151862</v>
+        <v>11.580707857033959</v>
       </c>
       <c r="K6">
         <f t="shared" si="5"/>
-        <v>15.513078647673987</v>
+        <v>2.6034473526319473</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="O6" s="4">
         <f>MAX(K:K)</f>
-        <v>24.459308092529394</v>
+        <v>4.1048280838989166</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -3190,11 +3202,11 @@
       </c>
       <c r="J7">
         <f t="shared" si="4"/>
-        <v>75.939346452728358</v>
+        <v>12.744349137467914</v>
       </c>
       <c r="K7">
         <f t="shared" si="5"/>
-        <v>17.071848536691409</v>
+        <v>2.8650443852450245</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -3232,11 +3244,11 @@
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
-        <v>82.451144664325184</v>
+        <v>13.837176950688416</v>
       </c>
       <c r="K8">
         <f t="shared" si="5"/>
-        <v>18.535759380842283</v>
+        <v>3.1107219131073123</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -3274,11 +3286,11 @@
       </c>
       <c r="J9">
         <f t="shared" si="4"/>
-        <v>78.827657125085196</v>
+        <v>13.229073346266631</v>
       </c>
       <c r="K9">
         <f t="shared" si="5"/>
-        <v>17.721166770633278</v>
+        <v>2.9740147499008551</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -3316,11 +3328,11 @@
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
-        <v>82.19079508005079</v>
+        <v>13.793484370296603</v>
       </c>
       <c r="K10">
         <f t="shared" si="5"/>
-        <v>18.47723045115114</v>
+        <v>3.1008994278020094</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -3358,11 +3370,11 @@
       </c>
       <c r="J11">
         <f t="shared" si="4"/>
-        <v>85.646599510499669</v>
+        <v>14.373446936077503</v>
       </c>
       <c r="K11">
         <f t="shared" si="5"/>
-        <v>19.254126389355921</v>
+        <v>3.2312802322526477</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -3400,11 +3412,11 @@
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
-        <v>73.684222255463368</v>
+        <v>12.365888017366128</v>
       </c>
       <c r="K12">
         <f t="shared" si="5"/>
-        <v>16.564876321028464</v>
+        <v>2.7799629192960622</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -3442,11 +3454,11 @@
       </c>
       <c r="J13">
         <f t="shared" si="4"/>
-        <v>81.979319088687731</v>
+        <v>13.757993890143462</v>
       </c>
       <c r="K13">
         <f t="shared" si="5"/>
-        <v>18.4296887450088</v>
+        <v>3.0929208484492619</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -3484,11 +3496,11 @@
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
-        <v>82.527437159828878</v>
+        <v>13.849980566266975</v>
       </c>
       <c r="K14">
         <f t="shared" si="5"/>
-        <v>18.552910620463972</v>
+        <v>3.1136002811219123</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -3526,11 +3538,11 @@
       </c>
       <c r="J15">
         <f t="shared" si="4"/>
-        <v>84.826788427969618</v>
+        <v>14.235863994551501</v>
       </c>
       <c r="K15">
         <f t="shared" si="5"/>
-        <v>19.069825479703422</v>
+        <v>3.2003503487511287</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -3568,11 +3580,11 @@
       </c>
       <c r="J16">
         <f t="shared" si="4"/>
-        <v>92.757768352047037</v>
+        <v>15.566862770233749</v>
       </c>
       <c r="K16">
         <f t="shared" si="5"/>
-        <v>20.852781145455342</v>
+        <v>3.4995708525134792</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -3610,11 +3622,11 @@
       </c>
       <c r="J17">
         <f t="shared" si="4"/>
-        <v>92.584171457889994</v>
+        <v>15.537729263933498</v>
       </c>
       <c r="K17">
         <f t="shared" si="5"/>
-        <v>20.813755001276792</v>
+        <v>3.4930213780956261</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -3652,11 +3664,11 @@
       </c>
       <c r="J18">
         <f t="shared" si="4"/>
-        <v>99.33103761010851</v>
+        <v>16.670006822855633</v>
       </c>
       <c r="K18">
         <f t="shared" si="5"/>
-        <v>22.330511234090885</v>
+        <v>3.7475675638393522</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -3694,11 +3706,11 @@
       </c>
       <c r="J19">
         <f t="shared" si="4"/>
-        <v>102.53447306389161</v>
+        <v>17.207616135674364</v>
       </c>
       <c r="K19">
         <f t="shared" si="5"/>
-        <v>23.05067235502041</v>
+        <v>3.8684269758448182</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -3736,11 +3748,11 @@
       </c>
       <c r="J20">
         <f t="shared" si="4"/>
-        <v>108.8003954135706</v>
+        <v>18.259180388235865</v>
       </c>
       <c r="K20">
         <f t="shared" si="5"/>
-        <v>24.459308092529394</v>
+        <v>4.1048280838989166</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -3778,11 +3790,11 @@
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
-        <v>106.81413709488757</v>
+        <v>17.925841076364726</v>
       </c>
       <c r="K21">
         <f t="shared" si="5"/>
-        <v>24.012779346164582</v>
+        <v>4.0298904065364782</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -3820,11 +3832,11 @@
       </c>
       <c r="J22">
         <f t="shared" si="4"/>
-        <v>104.24678695186454</v>
+        <v>17.494981342785362</v>
       </c>
       <c r="K22">
         <f t="shared" si="5"/>
-        <v>23.435615927861715</v>
+        <v>3.9330292606902346</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -3862,11 +3874,11 @@
       </c>
       <c r="J23">
         <f t="shared" si="4"/>
-        <v>106.18216064179025</v>
+        <v>17.819781056873452</v>
       </c>
       <c r="K23">
         <f t="shared" si="5"/>
-        <v>23.870705351720225</v>
+        <v>4.0060471596146643</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -3904,11 +3916,11 @@
       </c>
       <c r="J24">
         <f t="shared" si="4"/>
-        <v>104.930014968413</v>
+        <v>17.609642540045119</v>
       </c>
       <c r="K24">
         <f t="shared" si="5"/>
-        <v>23.58921173503396</v>
+        <v>3.9588061297850032</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -3946,11 +3958,11 @@
       </c>
       <c r="J25">
         <f t="shared" si="4"/>
-        <v>98.632395757068721</v>
+        <v>16.552758833333769</v>
       </c>
       <c r="K25">
         <f t="shared" si="5"/>
-        <v>22.173450257750861</v>
+        <v>3.7212091605629314</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -3960,6 +3972,15 @@
       <c r="C29">
         <f>AVERAGE(F3:F25)</f>
         <v>97.990292870269784</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30">
+        <f>0.5*1.225*5.1816^2</f>
+        <v>16.444999368000005</v>
       </c>
     </row>
   </sheetData>
@@ -3970,10 +3991,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E545F03-1D0D-2D47-BB11-364EDC77AB76}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4090,12 +4111,12 @@
         <v>0.40580082444362725</v>
       </c>
       <c r="J3">
-        <f>$C$35*$L$1*$O$1*I3</f>
-        <v>62.800766960728829</v>
+        <f>$C$36*$L$1*$O$1*I3</f>
+        <v>8.3426572935452796</v>
       </c>
       <c r="K3">
         <f>J3*0.224809</f>
-        <v>14.118177619674489</v>
+        <v>1.8755044435046209</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -4132,12 +4153,12 @@
         <v>0.4210865004699908</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J32" si="4">$C$35*$L$1*$O$1*I4</f>
-        <v>65.166341696277968</v>
+        <f t="shared" ref="J4:J32" si="4">$C$36*$L$1*$O$1*I4</f>
+        <v>8.6569079034669141</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K32" si="5">J4*0.224809</f>
-        <v>14.649980110398554</v>
+        <v>1.9461508088704935</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -4175,11 +4196,11 @@
       </c>
       <c r="J5">
         <f t="shared" si="4"/>
-        <v>73.69583353347835</v>
+        <v>9.7899932259814015</v>
       </c>
       <c r="K5">
         <f t="shared" si="5"/>
-        <v>16.567486640827735</v>
+        <v>2.2008785871396528</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>10</v>
@@ -4224,18 +4245,18 @@
       </c>
       <c r="J6">
         <f t="shared" si="4"/>
-        <v>84.283704666656078</v>
+        <v>11.196520321224661</v>
       </c>
       <c r="K6">
         <f t="shared" si="5"/>
-        <v>18.947735362406288</v>
+        <v>2.517078536894195</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="O6" s="4">
         <f>MAX(K:K)</f>
-        <v>34.427621924560498</v>
+        <v>4.5734768068670197</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -4273,11 +4294,11 @@
       </c>
       <c r="J7">
         <f t="shared" si="4"/>
-        <v>98.951275653736019</v>
+        <v>13.145007959130023</v>
       </c>
       <c r="K7">
         <f t="shared" si="5"/>
-        <v>22.245137328440741</v>
+        <v>2.9551160942840613</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -4315,11 +4336,11 @@
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
-        <v>90.647833499574205</v>
+        <v>12.041951808680974</v>
       </c>
       <c r="K8">
         <f t="shared" si="5"/>
-        <v>20.378448801205778</v>
+        <v>2.707139144157761</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -4357,11 +4378,11 @@
       </c>
       <c r="J9">
         <f t="shared" si="4"/>
-        <v>98.490690580709824</v>
+        <v>13.083822346202988</v>
       </c>
       <c r="K9">
         <f t="shared" si="5"/>
-        <v>22.141593658758797</v>
+        <v>2.9413610178275476</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -4399,11 +4420,11 @@
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
-        <v>104.20890342428474</v>
+        <v>13.843448261525422</v>
       </c>
       <c r="K10">
         <f t="shared" si="5"/>
-        <v>23.427099369910028</v>
+        <v>3.1121317602252687</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -4441,11 +4462,11 @@
       </c>
       <c r="J11">
         <f t="shared" si="4"/>
-        <v>108.01718302618752</v>
+        <v>14.349352458786921</v>
       </c>
       <c r="K11">
         <f t="shared" si="5"/>
-        <v>24.283234898934193</v>
+        <v>3.2258635769074289</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -4483,11 +4504,11 @@
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
-        <v>102.18972195950447</v>
+        <v>13.575213655653897</v>
       </c>
       <c r="K12">
         <f t="shared" si="5"/>
-        <v>22.973169203994242</v>
+        <v>3.0518302067138969</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -4525,11 +4546,11 @@
       </c>
       <c r="J13">
         <f t="shared" si="4"/>
-        <v>104.89811833320199</v>
+        <v>13.935005802379887</v>
       </c>
       <c r="K13">
         <f t="shared" si="5"/>
-        <v>23.582041084368807</v>
+        <v>3.13271471942722</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -4567,11 +4588,11 @@
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
-        <v>114.51062800512004</v>
+        <v>15.211962721932307</v>
       </c>
       <c r="K14">
         <f t="shared" si="5"/>
-        <v>25.743019771203031</v>
+        <v>3.4197861275548802</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -4609,11 +4630,11 @@
       </c>
       <c r="J15">
         <f t="shared" si="4"/>
-        <v>115.42238376915722</v>
+        <v>15.333083310786472</v>
       </c>
       <c r="K15">
         <f t="shared" si="5"/>
-        <v>25.947990672760469</v>
+        <v>3.447015126014596</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -4651,11 +4672,11 @@
       </c>
       <c r="J16">
         <f t="shared" si="4"/>
-        <v>116.97554591065413</v>
+        <v>15.539410400325368</v>
       </c>
       <c r="K16">
         <f t="shared" si="5"/>
-        <v>26.297155500628246</v>
+        <v>3.4933993126867455</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -4693,11 +4714,11 @@
       </c>
       <c r="J17">
         <f t="shared" si="4"/>
-        <v>124.63776299254479</v>
+        <v>16.557284135258183</v>
       </c>
       <c r="K17">
         <f t="shared" si="5"/>
-        <v>28.019690860591005</v>
+        <v>3.722226489163257</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -4735,11 +4756,11 @@
       </c>
       <c r="J18">
         <f t="shared" si="4"/>
-        <v>123.56779884686907</v>
+        <v>16.415146632553235</v>
       </c>
       <c r="K18">
         <f t="shared" si="5"/>
-        <v>27.779153290965787</v>
+        <v>3.6902726993176604</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -4777,11 +4798,11 @@
       </c>
       <c r="J19">
         <f t="shared" si="4"/>
-        <v>130.44153734122543</v>
+        <v>17.328276318050936</v>
       </c>
       <c r="K19">
         <f t="shared" si="5"/>
-        <v>29.324431568143549</v>
+        <v>3.8955524707847129</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -4819,11 +4840,11 @@
       </c>
       <c r="J20">
         <f t="shared" si="4"/>
-        <v>134.50381959336738</v>
+        <v>17.867923050079931</v>
       </c>
       <c r="K20">
         <f t="shared" si="5"/>
-        <v>30.23766917896533</v>
+        <v>4.0168699129654195</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -4861,11 +4882,11 @@
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
-        <v>138.68572610981127</v>
+        <v>18.423461056839496</v>
       </c>
       <c r="K21">
         <f t="shared" si="5"/>
-        <v>31.177799401020565</v>
+        <v>4.1417598567270302</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -4903,11 +4924,11 @@
       </c>
       <c r="J22">
         <f t="shared" si="4"/>
-        <v>150.64684907961563</v>
+        <v>20.012415373996646</v>
       </c>
       <c r="K22">
         <f t="shared" si="5"/>
-        <v>33.866767494739314</v>
+        <v>4.4989710878128122</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -4945,11 +4966,11 @@
       </c>
       <c r="J23">
         <f t="shared" si="4"/>
-        <v>147.06318709904747</v>
+        <v>19.536350109085415</v>
       </c>
       <c r="K23">
         <f t="shared" si="5"/>
-        <v>33.061128028549767</v>
+        <v>4.391947331673383</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -4987,11 +5008,11 @@
       </c>
       <c r="J24">
         <f t="shared" si="4"/>
-        <v>148.58888840213675</v>
+        <v>19.739029211905113</v>
       </c>
       <c r="K24">
         <f t="shared" si="5"/>
-        <v>33.404119412795964</v>
+        <v>4.4375114180991764</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -5029,11 +5050,11 @@
       </c>
       <c r="J25">
         <f t="shared" si="4"/>
-        <v>153.14165324591318</v>
+        <v>20.343833240070548</v>
       </c>
       <c r="K25">
         <f t="shared" si="5"/>
-        <v>34.427621924560498</v>
+        <v>4.5734768068670197</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -5071,11 +5092,11 @@
       </c>
       <c r="J26">
         <f t="shared" si="4"/>
-        <v>152.87534716030265</v>
+        <v>20.308456277097736</v>
       </c>
       <c r="K26">
         <f t="shared" si="5"/>
-        <v>34.367753919760482</v>
+        <v>4.565523747198065</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -5113,11 +5134,11 @@
       </c>
       <c r="J27">
         <f t="shared" si="4"/>
-        <v>145.02985860804665</v>
+        <v>19.266236166428804</v>
       </c>
       <c r="K27">
         <f t="shared" si="5"/>
-        <v>32.604017483816364</v>
+        <v>4.3312232863386928</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -5155,11 +5176,11 @@
       </c>
       <c r="J28">
         <f t="shared" si="4"/>
-        <v>144.33069657255692</v>
+        <v>19.173357217061898</v>
       </c>
       <c r="K28">
         <f t="shared" si="5"/>
-        <v>32.446839565779946</v>
+        <v>4.3103432626104681</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -5197,11 +5218,11 @@
       </c>
       <c r="J29">
         <f t="shared" si="4"/>
-        <v>144.95326804496912</v>
+        <v>19.256061627954217</v>
       </c>
       <c r="K29">
         <f t="shared" si="5"/>
-        <v>32.586799235921461</v>
+        <v>4.3289359585187599</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -5239,11 +5260,11 @@
       </c>
       <c r="J30">
         <f t="shared" si="4"/>
-        <v>146.0357210499285</v>
+        <v>19.399858191177586</v>
       </c>
       <c r="K30">
         <f t="shared" si="5"/>
-        <v>32.830144413513374</v>
+        <v>4.3612627201004424</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -5281,11 +5302,11 @@
       </c>
       <c r="J31">
         <f t="shared" si="4"/>
-        <v>150.93917288727536</v>
+        <v>20.05124861543738</v>
       </c>
       <c r="K31">
         <f t="shared" si="5"/>
-        <v>33.932484517615485</v>
+        <v>4.5077011499878621</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -5323,11 +5344,11 @@
       </c>
       <c r="J32">
         <f t="shared" si="4"/>
-        <v>147.17444048538803</v>
+        <v>19.551129369274481</v>
       </c>
       <c r="K32">
         <f t="shared" si="5"/>
-        <v>33.086138791079598</v>
+        <v>4.3952698423772265</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
@@ -5337,6 +5358,15 @@
       <c r="C35">
         <f>AVERAGE(F3:F32)</f>
         <v>171.33912854443238</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <f>0.5*1.225*6.096^2</f>
+        <v>22.761244800000004</v>
       </c>
     </row>
   </sheetData>
